--- a/data/Andante/order-service_structure.xlsx
+++ b/data/Andante/order-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18915" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18927" uniqueCount="875">
   <si>
     <t>Class Name</t>
   </si>
@@ -2322,15 +2322,15 @@
     <t>userDTOModelMapper</t>
   </si>
   <si>
+    <t>ORDER_INTERNAL_PROBLEM_MESSAGE</t>
+  </si>
+  <si>
+    <t>LOCATION_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>locationModelEntityMapper</t>
   </si>
   <si>
-    <t>LOCATION_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>ORDER_INTERNAL_PROBLEM_MESSAGE</t>
-  </si>
-  <si>
     <t>CLIENT_NOT_FOUND_EXCEPTION_MESSAGE</t>
   </si>
   <si>
@@ -2343,45 +2343,45 @@
     <t>PAGE_SIZE_NULL_ERROR_MESSAGE</t>
   </si>
   <si>
+    <t>EMAIL_INVALID_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>ORDER_STATUS_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>PAGE_SIZE_NON_POSITIVE_ERROR_MESSAGE</t>
   </si>
   <si>
+    <t>ORDER_SORTING_ORDER_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>emailSender</t>
+  </si>
+  <si>
+    <t>PAGE_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>EMAIL_NULL_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>ORDER_STATUS_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>EMAIL_INVALID_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>emailSender</t>
+    <t>IDENTIFIERS_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>PAGE_NEGATIVE_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>IDENTIFIERS_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>ORDER_SORTING_ORDER_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>PAGE_NULL_ERROR_MESSAGE</t>
+    <t>FIND_USER_PATH</t>
+  </si>
+  <si>
+    <t>CREATE_USER_PATH</t>
+  </si>
+  <si>
+    <t>UPDATE_USER_PATH</t>
   </si>
   <si>
     <t>DELETE_USER_PATH</t>
   </si>
   <si>
-    <t>UPDATE_USER_PATH</t>
-  </si>
-  <si>
-    <t>CREATE_USER_PATH</t>
-  </si>
-  <si>
-    <t>FIND_USER_PATH</t>
-  </si>
-  <si>
     <t>locationService</t>
   </si>
   <si>
@@ -2625,6 +2625,9 @@
     <t>9</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>88</t>
   </si>
   <si>
@@ -2635,9 +2638,6 @@
   </si>
   <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>127</t>
@@ -28055,7 +28055,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C703"/>
+  <dimension ref="A1:C707"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28407,10 +28407,10 @@
         <v>63</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>798</v>
+        <v>867</v>
       </c>
     </row>
     <row r="33">
@@ -28418,7 +28418,7 @@
         <v>63</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>798</v>
@@ -28429,7 +28429,7 @@
         <v>63</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>798</v>
@@ -28440,7 +28440,7 @@
         <v>63</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>798</v>
@@ -28451,7 +28451,7 @@
         <v>63</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>798</v>
@@ -28462,7 +28462,7 @@
         <v>63</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>798</v>
@@ -28473,7 +28473,7 @@
         <v>63</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>798</v>
@@ -28484,7 +28484,7 @@
         <v>63</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>798</v>
@@ -28495,7 +28495,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>798</v>
@@ -28506,7 +28506,7 @@
         <v>63</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>798</v>
@@ -28517,7 +28517,7 @@
         <v>63</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>798</v>
@@ -28528,7 +28528,7 @@
         <v>63</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>798</v>
@@ -28539,7 +28539,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>798</v>
@@ -28550,10 +28550,10 @@
         <v>63</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>867</v>
+        <v>798</v>
       </c>
     </row>
     <row r="46">
@@ -28561,10 +28561,10 @@
         <v>63</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>798</v>
+        <v>868</v>
       </c>
     </row>
     <row r="47">
@@ -28572,10 +28572,10 @@
         <v>63</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>868</v>
+        <v>798</v>
       </c>
     </row>
     <row r="48">
@@ -28583,18 +28583,18 @@
         <v>63</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>798</v>
+        <v>869</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>798</v>
@@ -28605,7 +28605,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>798</v>
@@ -28616,10 +28616,10 @@
         <v>84</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>852</v>
+        <v>798</v>
       </c>
     </row>
     <row r="52">
@@ -28627,10 +28627,10 @@
         <v>84</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>798</v>
+        <v>852</v>
       </c>
     </row>
     <row r="53">
@@ -28638,7 +28638,7 @@
         <v>84</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>798</v>
@@ -28649,7 +28649,7 @@
         <v>84</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>798</v>
@@ -28660,7 +28660,7 @@
         <v>84</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>798</v>
@@ -28671,7 +28671,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>798</v>
@@ -28682,7 +28682,7 @@
         <v>84</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>798</v>
@@ -28693,7 +28693,7 @@
         <v>84</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>798</v>
@@ -28704,7 +28704,7 @@
         <v>84</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>798</v>
@@ -28715,7 +28715,7 @@
         <v>84</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>798</v>
@@ -28726,7 +28726,7 @@
         <v>84</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>798</v>
@@ -28737,7 +28737,7 @@
         <v>84</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>798</v>
@@ -28748,7 +28748,7 @@
         <v>84</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>798</v>
@@ -28759,7 +28759,7 @@
         <v>84</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>798</v>
@@ -28770,7 +28770,7 @@
         <v>84</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>798</v>
@@ -28781,7 +28781,7 @@
         <v>84</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>798</v>
@@ -28792,7 +28792,7 @@
         <v>84</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>798</v>
@@ -28803,7 +28803,7 @@
         <v>84</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>798</v>
@@ -28814,7 +28814,7 @@
         <v>84</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>798</v>
@@ -28825,7 +28825,7 @@
         <v>84</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>798</v>
@@ -28836,7 +28836,7 @@
         <v>84</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>798</v>
@@ -28847,7 +28847,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>798</v>
@@ -28858,7 +28858,7 @@
         <v>84</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>798</v>
@@ -28869,7 +28869,7 @@
         <v>84</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>798</v>
@@ -28880,7 +28880,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>798</v>
@@ -28891,7 +28891,7 @@
         <v>84</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>798</v>
@@ -28902,10 +28902,10 @@
         <v>84</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>869</v>
+        <v>798</v>
       </c>
     </row>
     <row r="78">
@@ -28913,10 +28913,10 @@
         <v>84</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>798</v>
+        <v>870</v>
       </c>
     </row>
     <row r="79">
@@ -28924,10 +28924,10 @@
         <v>84</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>831</v>
+        <v>798</v>
       </c>
     </row>
     <row r="80">
@@ -28935,21 +28935,21 @@
         <v>84</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>798</v>
+        <v>831</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>853</v>
+        <v>798</v>
       </c>
     </row>
     <row r="82">
@@ -28957,10 +28957,10 @@
         <v>119</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>842</v>
+        <v>853</v>
       </c>
     </row>
     <row r="83">
@@ -28968,10 +28968,10 @@
         <v>119</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>870</v>
+        <v>842</v>
       </c>
     </row>
     <row r="84">
@@ -28979,18 +28979,18 @@
         <v>119</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>853</v>
+        <v>871</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>853</v>
@@ -29001,10 +29001,10 @@
         <v>125</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>802</v>
+        <v>853</v>
       </c>
     </row>
     <row r="87">
@@ -29012,10 +29012,10 @@
         <v>125</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>832</v>
+        <v>802</v>
       </c>
     </row>
     <row r="88">
@@ -29023,18 +29023,18 @@
         <v>125</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>853</v>
+        <v>832</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>853</v>
@@ -29045,10 +29045,10 @@
         <v>130</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>866</v>
+        <v>853</v>
       </c>
     </row>
     <row r="91">
@@ -29056,10 +29056,10 @@
         <v>130</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>835</v>
+        <v>866</v>
       </c>
     </row>
     <row r="92">
@@ -29067,21 +29067,21 @@
         <v>130</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>798</v>
+        <v>841</v>
       </c>
     </row>
     <row r="94">
@@ -29089,10 +29089,10 @@
         <v>135</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="95">
@@ -29100,10 +29100,10 @@
         <v>135</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>832</v>
+        <v>814</v>
       </c>
     </row>
     <row r="96">
@@ -29111,10 +29111,10 @@
         <v>135</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>798</v>
+        <v>832</v>
       </c>
     </row>
     <row r="97">
@@ -29122,7 +29122,7 @@
         <v>135</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>798</v>
@@ -29133,7 +29133,7 @@
         <v>135</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>798</v>
@@ -29144,7 +29144,7 @@
         <v>135</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>798</v>
@@ -29155,7 +29155,7 @@
         <v>135</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>798</v>
@@ -29166,7 +29166,7 @@
         <v>135</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>798</v>
@@ -29177,7 +29177,7 @@
         <v>135</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>798</v>
@@ -29188,10 +29188,10 @@
         <v>135</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>848</v>
+        <v>798</v>
       </c>
     </row>
     <row r="104">
@@ -29199,10 +29199,10 @@
         <v>135</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>798</v>
+        <v>848</v>
       </c>
     </row>
     <row r="105">
@@ -29210,7 +29210,7 @@
         <v>135</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>798</v>
@@ -29221,7 +29221,7 @@
         <v>135</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>798</v>
@@ -29232,10 +29232,10 @@
         <v>135</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>853</v>
+        <v>798</v>
       </c>
     </row>
     <row r="108">
@@ -29243,7 +29243,7 @@
         <v>135</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>853</v>
@@ -29254,7 +29254,7 @@
         <v>135</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>853</v>
@@ -29265,7 +29265,7 @@
         <v>135</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>853</v>
@@ -29273,13 +29273,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>818</v>
+        <v>853</v>
       </c>
     </row>
     <row r="112">
@@ -29287,98 +29287,98 @@
         <v>159</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>802</v>
+        <v>818</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>870</v>
+        <v>802</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>798</v>
+        <v>853</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>853</v>
+        <v>871</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>842</v>
+        <v>853</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>823</v>
+        <v>798</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>802</v>
+        <v>853</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>870</v>
+        <v>842</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="121">
@@ -29386,10 +29386,10 @@
         <v>175</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="122">
@@ -29397,10 +29397,10 @@
         <v>175</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>798</v>
+        <v>871</v>
       </c>
     </row>
     <row r="123">
@@ -29408,10 +29408,10 @@
         <v>175</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>843</v>
+        <v>818</v>
       </c>
     </row>
     <row r="124">
@@ -29419,7 +29419,7 @@
         <v>175</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>798</v>
@@ -29427,21 +29427,21 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>853</v>
+        <v>798</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>843</v>
@@ -29449,46 +29449,46 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>852</v>
+        <v>798</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>832</v>
+        <v>853</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>871</v>
+        <v>843</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>871</v>
+        <v>852</v>
       </c>
     </row>
     <row r="131">
@@ -29496,10 +29496,10 @@
         <v>187</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>852</v>
+        <v>832</v>
       </c>
     </row>
     <row r="132">
@@ -29507,43 +29507,43 @@
         <v>187</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>802</v>
+        <v>867</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>853</v>
+        <v>867</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>866</v>
+        <v>852</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>866</v>
+        <v>802</v>
       </c>
     </row>
     <row r="136">
@@ -29551,98 +29551,98 @@
         <v>191</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>835</v>
+        <v>853</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>866</v>
+        <v>853</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>794</v>
+        <v>853</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>802</v>
+        <v>867</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>802</v>
+        <v>843</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>802</v>
+        <v>866</v>
       </c>
     </row>
     <row r="145">
@@ -29650,10 +29650,10 @@
         <v>201</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="146">
@@ -29661,10 +29661,10 @@
         <v>201</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="147">
@@ -29672,51 +29672,51 @@
         <v>201</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>819</v>
+        <v>798</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>798</v>
@@ -29727,7 +29727,7 @@
         <v>91</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>798</v>
@@ -29738,7 +29738,7 @@
         <v>91</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>798</v>
@@ -29749,10 +29749,10 @@
         <v>91</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>798</v>
+        <v>819</v>
       </c>
     </row>
     <row r="155">
@@ -29760,7 +29760,7 @@
         <v>91</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>798</v>
@@ -29771,7 +29771,7 @@
         <v>91</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>209</v>
+        <v>68</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>798</v>
@@ -29782,7 +29782,7 @@
         <v>91</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>798</v>
@@ -29793,7 +29793,7 @@
         <v>91</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>798</v>
@@ -29804,7 +29804,7 @@
         <v>91</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>798</v>
@@ -29815,7 +29815,7 @@
         <v>91</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>798</v>
@@ -29826,7 +29826,7 @@
         <v>91</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>798</v>
@@ -29837,7 +29837,7 @@
         <v>91</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>798</v>
@@ -29848,7 +29848,7 @@
         <v>91</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>798</v>
@@ -29859,7 +29859,7 @@
         <v>91</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>798</v>
@@ -29870,7 +29870,7 @@
         <v>91</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>798</v>
@@ -29881,7 +29881,7 @@
         <v>91</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>798</v>
@@ -29892,7 +29892,7 @@
         <v>91</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>798</v>
@@ -29903,7 +29903,7 @@
         <v>91</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>798</v>
@@ -29914,7 +29914,7 @@
         <v>91</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>798</v>
@@ -29925,10 +29925,10 @@
         <v>91</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>872</v>
+        <v>798</v>
       </c>
     </row>
     <row r="171">
@@ -29936,7 +29936,7 @@
         <v>91</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>798</v>
@@ -29947,10 +29947,10 @@
         <v>91</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>833</v>
+        <v>798</v>
       </c>
     </row>
     <row r="173">
@@ -29958,7 +29958,7 @@
         <v>91</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>798</v>
@@ -29966,21 +29966,21 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>227</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>798</v>
+        <v>872</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>798</v>
@@ -29988,21 +29988,21 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>798</v>
+        <v>833</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>798</v>
@@ -30013,7 +30013,7 @@
         <v>224</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>798</v>
@@ -30024,7 +30024,7 @@
         <v>224</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>798</v>
@@ -30035,54 +30035,54 @@
         <v>224</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>843</v>
+        <v>798</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>832</v>
+        <v>798</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>819</v>
+        <v>798</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>798</v>
+        <v>843</v>
       </c>
     </row>
     <row r="185">
@@ -30090,54 +30090,54 @@
         <v>232</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>853</v>
+        <v>832</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>853</v>
+        <v>814</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>871</v>
+        <v>819</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="190">
@@ -30145,10 +30145,10 @@
         <v>239</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>871</v>
+        <v>853</v>
       </c>
     </row>
     <row r="191">
@@ -30156,54 +30156,54 @@
         <v>239</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>832</v>
+        <v>867</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>792</v>
+        <v>802</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>792</v>
+        <v>843</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>792</v>
+        <v>867</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>792</v>
+        <v>832</v>
       </c>
     </row>
     <row r="196">
@@ -30211,7 +30211,7 @@
         <v>241</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>792</v>
@@ -30222,7 +30222,7 @@
         <v>241</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>792</v>
@@ -30233,7 +30233,7 @@
         <v>241</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>792</v>
@@ -30241,46 +30241,46 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>853</v>
+        <v>792</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="203">
@@ -30288,10 +30288,10 @@
         <v>248</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>798</v>
+        <v>853</v>
       </c>
     </row>
     <row r="204">
@@ -30299,7 +30299,7 @@
         <v>248</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>798</v>
@@ -30310,7 +30310,7 @@
         <v>248</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>798</v>
@@ -30321,7 +30321,7 @@
         <v>248</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>798</v>
@@ -30329,46 +30329,46 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="211">
@@ -30376,10 +30376,10 @@
         <v>260</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="212">
@@ -30387,7 +30387,7 @@
         <v>260</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>802</v>
@@ -30398,7 +30398,7 @@
         <v>260</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>802</v>
@@ -30409,7 +30409,7 @@
         <v>260</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>802</v>
@@ -30420,7 +30420,7 @@
         <v>260</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>802</v>
@@ -30431,7 +30431,7 @@
         <v>260</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>802</v>
@@ -30442,10 +30442,10 @@
         <v>260</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="218">
@@ -30453,29 +30453,29 @@
         <v>260</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>853</v>
+        <v>802</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>802</v>
@@ -30483,32 +30483,32 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>852</v>
+        <v>798</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>853</v>
+        <v>798</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>853</v>
@@ -30516,43 +30516,43 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>819</v>
+        <v>802</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>866</v>
+        <v>852</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>128</v>
+        <v>272</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>853</v>
@@ -30560,54 +30560,54 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>842</v>
+        <v>819</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>285</v>
+        <v>128</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>853</v>
+        <v>860</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>842</v>
+        <v>853</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>842</v>
@@ -30615,57 +30615,57 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>853</v>
+        <v>871</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>794</v>
+        <v>853</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>802</v>
+        <v>842</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>802</v>
+        <v>842</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>802</v>
+        <v>853</v>
       </c>
     </row>
     <row r="238">
@@ -30673,10 +30673,10 @@
         <v>289</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="239">
@@ -30684,10 +30684,10 @@
         <v>289</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="240">
@@ -30695,29 +30695,29 @@
         <v>289</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>794</v>
+        <v>802</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>802</v>
@@ -30725,24 +30725,24 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="245">
@@ -30750,10 +30750,10 @@
         <v>292</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="246">
@@ -30761,7 +30761,7 @@
         <v>292</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>802</v>
@@ -30772,7 +30772,7 @@
         <v>292</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>802</v>
@@ -30783,10 +30783,10 @@
         <v>292</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>203</v>
+        <v>294</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="249">
@@ -30794,40 +30794,40 @@
         <v>292</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>11</v>
+        <v>296</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="0">
-        <v>139</v>
+        <v>292</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C250" t="s" s="0">
-        <v>814</v>
+        <v>802</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="0">
-        <v>139</v>
+        <v>292</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="C251" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
-        <v>139</v>
+        <v>292</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>798</v>
@@ -30835,10 +30835,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="0">
-        <v>139</v>
+        <v>292</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>798</v>
@@ -30849,10 +30849,10 @@
         <v>139</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>798</v>
+        <v>814</v>
       </c>
     </row>
     <row r="255">
@@ -30860,7 +30860,7 @@
         <v>139</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>301</v>
+        <v>72</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>798</v>
@@ -30871,7 +30871,7 @@
         <v>139</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>798</v>
@@ -30882,7 +30882,7 @@
         <v>139</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>798</v>
@@ -30893,7 +30893,7 @@
         <v>139</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>798</v>
@@ -30904,7 +30904,7 @@
         <v>139</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>798</v>
@@ -30915,10 +30915,10 @@
         <v>139</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>825</v>
+        <v>798</v>
       </c>
     </row>
     <row r="261">
@@ -30926,7 +30926,7 @@
         <v>139</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>798</v>
@@ -30937,10 +30937,10 @@
         <v>139</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>22</v>
+        <v>304</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>870</v>
+        <v>798</v>
       </c>
     </row>
     <row r="263">
@@ -30948,7 +30948,7 @@
         <v>139</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>11</v>
+        <v>303</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>798</v>
@@ -30956,43 +30956,43 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>798</v>
+        <v>825</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>819</v>
+        <v>798</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>794</v>
+        <v>871</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>798</v>
@@ -31003,7 +31003,7 @@
         <v>18</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>798</v>
@@ -31014,10 +31014,10 @@
         <v>18</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>798</v>
+        <v>819</v>
       </c>
     </row>
     <row r="270">
@@ -31025,10 +31025,10 @@
         <v>18</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="271">
@@ -31036,7 +31036,7 @@
         <v>18</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>223</v>
+        <v>68</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>798</v>
@@ -31047,7 +31047,7 @@
         <v>18</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>798</v>
@@ -31058,7 +31058,7 @@
         <v>18</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>798</v>
@@ -31069,7 +31069,7 @@
         <v>18</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>310</v>
+        <v>214</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>798</v>
@@ -31080,7 +31080,7 @@
         <v>18</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>798</v>
@@ -31091,7 +31091,7 @@
         <v>18</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>798</v>
@@ -31102,7 +31102,7 @@
         <v>18</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>798</v>
@@ -31113,7 +31113,7 @@
         <v>18</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>798</v>
@@ -31124,7 +31124,7 @@
         <v>18</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>798</v>
@@ -31135,7 +31135,7 @@
         <v>18</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>798</v>
@@ -31146,7 +31146,7 @@
         <v>18</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C281" t="s" s="0">
         <v>798</v>
@@ -31157,7 +31157,7 @@
         <v>18</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>798</v>
@@ -31168,7 +31168,7 @@
         <v>18</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>798</v>
@@ -31179,7 +31179,7 @@
         <v>18</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>798</v>
@@ -31187,156 +31187,156 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>853</v>
+        <v>798</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>819</v>
+        <v>798</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>819</v>
+        <v>798</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
-        <v>316</v>
+        <v>18</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>853</v>
+        <v>798</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C289" t="s" s="0">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="C290" t="s" s="0">
-        <v>848</v>
+        <v>819</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="0">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C291" t="s" s="0">
-        <v>853</v>
+        <v>819</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="0">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C292" t="s" s="0">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C293" t="s" s="0">
-        <v>798</v>
+        <v>843</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C294" t="s" s="0">
-        <v>798</v>
+        <v>848</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>47</v>
+        <v>317</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>792</v>
+        <v>853</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C296" t="s" s="0">
-        <v>792</v>
+        <v>843</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>792</v>
+        <v>798</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>792</v>
+        <v>798</v>
       </c>
     </row>
     <row r="299">
@@ -31344,7 +31344,7 @@
         <v>325</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>328</v>
+        <v>47</v>
       </c>
       <c r="C299" t="s" s="0">
         <v>792</v>
@@ -31352,65 +31352,65 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>853</v>
+        <v>792</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>842</v>
+        <v>792</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>852</v>
+        <v>792</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>853</v>
+        <v>792</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>842</v>
+        <v>853</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C305" t="s" s="0">
         <v>842</v>
@@ -31418,21 +31418,21 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="0">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>841</v>
+        <v>852</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C307" t="s" s="0">
         <v>853</v>
@@ -31440,76 +31440,76 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="0">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>819</v>
+        <v>842</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>866</v>
+        <v>842</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>819</v>
+        <v>841</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>47</v>
+        <v>341</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>832</v>
+        <v>853</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>832</v>
+        <v>819</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>848</v>
+        <v>866</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="C314" t="s" s="0">
         <v>819</v>
@@ -31520,10 +31520,10 @@
         <v>343</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>852</v>
+        <v>832</v>
       </c>
     </row>
     <row r="316">
@@ -31531,10 +31531,10 @@
         <v>343</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="317">
@@ -31542,10 +31542,10 @@
         <v>343</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>346</v>
+        <v>43</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>802</v>
+        <v>848</v>
       </c>
     </row>
     <row r="318">
@@ -31553,10 +31553,10 @@
         <v>343</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>344</v>
+        <v>42</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="319">
@@ -31564,51 +31564,51 @@
         <v>343</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>853</v>
+        <v>819</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>842</v>
+        <v>802</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>833</v>
+        <v>814</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C323" t="s" s="0">
         <v>853</v>
@@ -31616,134 +31616,134 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>16</v>
+        <v>348</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>866</v>
+        <v>842</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C326" t="s" s="0">
-        <v>853</v>
+        <v>833</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>25</v>
+        <v>352</v>
       </c>
       <c r="C327" t="s" s="0">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>357</v>
+        <v>25</v>
       </c>
       <c r="C328" t="s" s="0">
-        <v>853</v>
+        <v>843</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>358</v>
+        <v>16</v>
       </c>
       <c r="C329" t="s" s="0">
-        <v>843</v>
+        <v>866</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C330" t="s" s="0">
-        <v>841</v>
+        <v>853</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>356</v>
+        <v>25</v>
       </c>
       <c r="C331" t="s" s="0">
-        <v>853</v>
+        <v>843</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C332" t="s" s="0">
-        <v>802</v>
+        <v>853</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C333" t="s" s="0">
-        <v>798</v>
+        <v>843</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C334" t="s" s="0">
-        <v>798</v>
+        <v>841</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s" s="0">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C335" t="s" s="0">
-        <v>798</v>
+        <v>853</v>
       </c>
     </row>
     <row r="336">
@@ -31751,10 +31751,10 @@
         <v>360</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C336" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="337">
@@ -31762,10 +31762,10 @@
         <v>360</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C337" t="s" s="0">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="338">
@@ -31773,29 +31773,29 @@
         <v>360</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C338" t="s" s="0">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="0">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C339" t="s" s="0">
-        <v>853</v>
+        <v>798</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="0">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C340" t="s" s="0">
         <v>798</v>
@@ -31803,32 +31803,32 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="0">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="C341" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="0">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C342" t="s" s="0">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C343" t="s" s="0">
         <v>853</v>
@@ -31836,35 +31836,35 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>205</v>
+        <v>381</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s" s="0">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>376</v>
+        <v>203</v>
       </c>
       <c r="C345" t="s" s="0">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s" s="0">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C346" t="s" s="0">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="347">
@@ -31872,10 +31872,10 @@
         <v>371</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>802</v>
+        <v>853</v>
       </c>
     </row>
     <row r="348">
@@ -31883,7 +31883,7 @@
         <v>371</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>370</v>
+        <v>205</v>
       </c>
       <c r="C348" t="s" s="0">
         <v>802</v>
@@ -31894,7 +31894,7 @@
         <v>371</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C349" t="s" s="0">
         <v>802</v>
@@ -31905,7 +31905,7 @@
         <v>371</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C350" t="s" s="0">
         <v>802</v>
@@ -31916,7 +31916,7 @@
         <v>371</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C351" t="s" s="0">
         <v>802</v>
@@ -31927,7 +31927,7 @@
         <v>371</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C352" t="s" s="0">
         <v>802</v>
@@ -31938,7 +31938,7 @@
         <v>371</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C353" t="s" s="0">
         <v>802</v>
@@ -31949,7 +31949,7 @@
         <v>371</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C354" t="s" s="0">
         <v>802</v>
@@ -31960,10 +31960,10 @@
         <v>371</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C355" t="s" s="0">
-        <v>792</v>
+        <v>802</v>
       </c>
     </row>
     <row r="356">
@@ -31971,10 +31971,10 @@
         <v>371</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>203</v>
+        <v>375</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>792</v>
+        <v>802</v>
       </c>
     </row>
     <row r="357">
@@ -31982,54 +31982,54 @@
         <v>371</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>11</v>
+        <v>380</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="0">
-        <v>150</v>
+        <v>371</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>813</v>
+        <v>802</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="0">
-        <v>150</v>
+        <v>371</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>72</v>
+        <v>381</v>
       </c>
       <c r="C359" t="s" s="0">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="0">
-        <v>150</v>
+        <v>371</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>384</v>
+        <v>203</v>
       </c>
       <c r="C360" t="s" s="0">
-        <v>870</v>
+        <v>792</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="0">
-        <v>150</v>
+        <v>371</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>385</v>
+        <v>11</v>
       </c>
       <c r="C361" t="s" s="0">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="362">
@@ -32037,10 +32037,10 @@
         <v>150</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>68</v>
+        <v>391</v>
       </c>
       <c r="C362" t="s" s="0">
-        <v>798</v>
+        <v>813</v>
       </c>
     </row>
     <row r="363">
@@ -32048,7 +32048,7 @@
         <v>150</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C363" t="s" s="0">
         <v>798</v>
@@ -32059,10 +32059,10 @@
         <v>150</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>117</v>
+        <v>384</v>
       </c>
       <c r="C364" t="s" s="0">
-        <v>798</v>
+        <v>871</v>
       </c>
     </row>
     <row r="365">
@@ -32070,10 +32070,10 @@
         <v>150</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>90</v>
+        <v>385</v>
       </c>
       <c r="C365" t="s" s="0">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="366">
@@ -32081,7 +32081,7 @@
         <v>150</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="C366" t="s" s="0">
         <v>798</v>
@@ -32092,7 +32092,7 @@
         <v>150</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>388</v>
+        <v>114</v>
       </c>
       <c r="C367" t="s" s="0">
         <v>798</v>
@@ -32103,7 +32103,7 @@
         <v>150</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>393</v>
+        <v>117</v>
       </c>
       <c r="C368" t="s" s="0">
         <v>798</v>
@@ -32114,7 +32114,7 @@
         <v>150</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C369" t="s" s="0">
         <v>798</v>
@@ -32125,7 +32125,7 @@
         <v>150</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C370" t="s" s="0">
         <v>798</v>
@@ -32136,7 +32136,7 @@
         <v>150</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>98</v>
+        <v>388</v>
       </c>
       <c r="C371" t="s" s="0">
         <v>798</v>
@@ -32147,7 +32147,7 @@
         <v>150</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>108</v>
+        <v>393</v>
       </c>
       <c r="C372" t="s" s="0">
         <v>798</v>
@@ -32158,7 +32158,7 @@
         <v>150</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C373" t="s" s="0">
         <v>798</v>
@@ -32169,7 +32169,7 @@
         <v>150</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C374" t="s" s="0">
         <v>798</v>
@@ -32180,7 +32180,7 @@
         <v>150</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>394</v>
+        <v>98</v>
       </c>
       <c r="C375" t="s" s="0">
         <v>798</v>
@@ -32191,7 +32191,7 @@
         <v>150</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>386</v>
+        <v>108</v>
       </c>
       <c r="C376" t="s" s="0">
         <v>798</v>
@@ -32202,7 +32202,7 @@
         <v>150</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>390</v>
+        <v>74</v>
       </c>
       <c r="C377" t="s" s="0">
         <v>798</v>
@@ -32213,7 +32213,7 @@
         <v>150</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>392</v>
+        <v>85</v>
       </c>
       <c r="C378" t="s" s="0">
         <v>798</v>
@@ -32224,7 +32224,7 @@
         <v>150</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C379" t="s" s="0">
         <v>798</v>
@@ -32235,7 +32235,7 @@
         <v>150</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>109</v>
+        <v>386</v>
       </c>
       <c r="C380" t="s" s="0">
         <v>798</v>
@@ -32246,7 +32246,7 @@
         <v>150</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>103</v>
+        <v>390</v>
       </c>
       <c r="C381" t="s" s="0">
         <v>798</v>
@@ -32257,7 +32257,7 @@
         <v>150</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>94</v>
+        <v>392</v>
       </c>
       <c r="C382" t="s" s="0">
         <v>798</v>
@@ -32268,7 +32268,7 @@
         <v>150</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>86</v>
+        <v>389</v>
       </c>
       <c r="C383" t="s" s="0">
         <v>798</v>
@@ -32279,51 +32279,51 @@
         <v>150</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>395</v>
+        <v>109</v>
       </c>
       <c r="C384" t="s" s="0">
-        <v>853</v>
+        <v>798</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s" s="0">
-        <v>396</v>
+        <v>150</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>398</v>
+        <v>103</v>
       </c>
       <c r="C385" t="s" s="0">
-        <v>853</v>
+        <v>798</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s" s="0">
-        <v>396</v>
+        <v>150</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>400</v>
+        <v>94</v>
       </c>
       <c r="C386" t="s" s="0">
-        <v>843</v>
+        <v>798</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s" s="0">
-        <v>396</v>
+        <v>150</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>399</v>
+        <v>86</v>
       </c>
       <c r="C387" t="s" s="0">
-        <v>873</v>
+        <v>798</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s" s="0">
-        <v>396</v>
+        <v>150</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C388" t="s" s="0">
         <v>853</v>
@@ -32331,57 +32331,57 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="0">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C389" t="s" s="0">
-        <v>792</v>
+        <v>853</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s" s="0">
-        <v>95</v>
+        <v>396</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C390" t="s" s="0">
-        <v>794</v>
+        <v>843</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s" s="0">
-        <v>95</v>
+        <v>396</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>205</v>
+        <v>399</v>
       </c>
       <c r="C391" t="s" s="0">
-        <v>802</v>
+        <v>873</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s" s="0">
-        <v>95</v>
+        <v>396</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C392" t="s" s="0">
-        <v>802</v>
+        <v>853</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s" s="0">
-        <v>95</v>
+        <v>401</v>
       </c>
       <c r="B393" t="s" s="0">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="C393" t="s" s="0">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="394">
@@ -32389,10 +32389,10 @@
         <v>95</v>
       </c>
       <c r="B394" t="s" s="0">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="C394" t="s" s="0">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="395">
@@ -32400,7 +32400,7 @@
         <v>95</v>
       </c>
       <c r="B395" t="s" s="0">
-        <v>377</v>
+        <v>205</v>
       </c>
       <c r="C395" t="s" s="0">
         <v>802</v>
@@ -32411,7 +32411,7 @@
         <v>95</v>
       </c>
       <c r="B396" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C396" t="s" s="0">
         <v>802</v>
@@ -32422,7 +32422,7 @@
         <v>95</v>
       </c>
       <c r="B397" t="s" s="0">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="C397" t="s" s="0">
         <v>802</v>
@@ -32433,7 +32433,7 @@
         <v>95</v>
       </c>
       <c r="B398" t="s" s="0">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="C398" t="s" s="0">
         <v>802</v>
@@ -32444,7 +32444,7 @@
         <v>95</v>
       </c>
       <c r="B399" t="s" s="0">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C399" t="s" s="0">
         <v>802</v>
@@ -32455,7 +32455,7 @@
         <v>95</v>
       </c>
       <c r="B400" t="s" s="0">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="C400" t="s" s="0">
         <v>802</v>
@@ -32466,7 +32466,7 @@
         <v>95</v>
       </c>
       <c r="B401" t="s" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C401" t="s" s="0">
         <v>802</v>
@@ -32477,7 +32477,7 @@
         <v>95</v>
       </c>
       <c r="B402" t="s" s="0">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="C402" t="s" s="0">
         <v>802</v>
@@ -32488,10 +32488,10 @@
         <v>95</v>
       </c>
       <c r="B403" t="s" s="0">
-        <v>203</v>
+        <v>382</v>
       </c>
       <c r="C403" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="404">
@@ -32499,29 +32499,29 @@
         <v>95</v>
       </c>
       <c r="B404" t="s" s="0">
-        <v>11</v>
+        <v>375</v>
       </c>
       <c r="C404" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s" s="0">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B405" t="s" s="0">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C405" t="s" s="0">
-        <v>794</v>
+        <v>802</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s" s="0">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B406" t="s" s="0">
-        <v>205</v>
+        <v>372</v>
       </c>
       <c r="C406" t="s" s="0">
         <v>802</v>
@@ -32529,24 +32529,24 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="0">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B407" t="s" s="0">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="C407" t="s" s="0">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s" s="0">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B408" t="s" s="0">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="C408" t="s" s="0">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="409">
@@ -32554,10 +32554,10 @@
         <v>73</v>
       </c>
       <c r="B409" t="s" s="0">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="C409" t="s" s="0">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="410">
@@ -32565,7 +32565,7 @@
         <v>73</v>
       </c>
       <c r="B410" t="s" s="0">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="C410" t="s" s="0">
         <v>802</v>
@@ -32576,7 +32576,7 @@
         <v>73</v>
       </c>
       <c r="B411" t="s" s="0">
-        <v>409</v>
+        <v>297</v>
       </c>
       <c r="C411" t="s" s="0">
         <v>802</v>
@@ -32587,10 +32587,10 @@
         <v>73</v>
       </c>
       <c r="B412" t="s" s="0">
-        <v>203</v>
+        <v>294</v>
       </c>
       <c r="C412" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="413">
@@ -32598,40 +32598,40 @@
         <v>73</v>
       </c>
       <c r="B413" t="s" s="0">
-        <v>11</v>
+        <v>293</v>
       </c>
       <c r="C413" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s" s="0">
-        <v>411</v>
+        <v>73</v>
       </c>
       <c r="B414" t="s" s="0">
-        <v>413</v>
+        <v>296</v>
       </c>
       <c r="C414" t="s" s="0">
-        <v>853</v>
+        <v>802</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s" s="0">
-        <v>411</v>
+        <v>73</v>
       </c>
       <c r="B415" t="s" s="0">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C415" t="s" s="0">
-        <v>848</v>
+        <v>802</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s" s="0">
-        <v>414</v>
+        <v>73</v>
       </c>
       <c r="B416" t="s" s="0">
-        <v>416</v>
+        <v>203</v>
       </c>
       <c r="C416" t="s" s="0">
         <v>798</v>
@@ -32639,54 +32639,54 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="0">
-        <v>414</v>
+        <v>73</v>
       </c>
       <c r="B417" t="s" s="0">
-        <v>417</v>
+        <v>11</v>
       </c>
       <c r="C417" t="s" s="0">
-        <v>843</v>
+        <v>798</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s" s="0">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B418" t="s" s="0">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C418" t="s" s="0">
-        <v>798</v>
+        <v>853</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s" s="0">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B419" t="s" s="0">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C419" t="s" s="0">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s" s="0">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B420" t="s" s="0">
-        <v>199</v>
+        <v>416</v>
       </c>
       <c r="C420" t="s" s="0">
-        <v>871</v>
+        <v>798</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s" s="0">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B421" t="s" s="0">
-        <v>25</v>
+        <v>417</v>
       </c>
       <c r="C421" t="s" s="0">
         <v>843</v>
@@ -32694,13 +32694,13 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="0">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B422" t="s" s="0">
-        <v>16</v>
+        <v>415</v>
       </c>
       <c r="C422" t="s" s="0">
-        <v>866</v>
+        <v>798</v>
       </c>
     </row>
     <row r="423">
@@ -32708,54 +32708,54 @@
         <v>418</v>
       </c>
       <c r="B423" t="s" s="0">
-        <v>19</v>
+        <v>419</v>
       </c>
       <c r="C423" t="s" s="0">
-        <v>832</v>
+        <v>853</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s" s="0">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B424" t="s" s="0">
-        <v>427</v>
+        <v>199</v>
       </c>
       <c r="C424" t="s" s="0">
-        <v>853</v>
+        <v>867</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s" s="0">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B425" t="s" s="0">
-        <v>422</v>
+        <v>25</v>
       </c>
       <c r="C425" t="s" s="0">
-        <v>819</v>
+        <v>843</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s" s="0">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B426" t="s" s="0">
-        <v>424</v>
+        <v>16</v>
       </c>
       <c r="C426" t="s" s="0">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s" s="0">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B427" t="s" s="0">
-        <v>428</v>
+        <v>19</v>
       </c>
       <c r="C427" t="s" s="0">
-        <v>873</v>
+        <v>832</v>
       </c>
     </row>
     <row r="428">
@@ -32763,7 +32763,7 @@
         <v>420</v>
       </c>
       <c r="B428" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C428" t="s" s="0">
         <v>853</v>
@@ -32774,10 +32774,10 @@
         <v>420</v>
       </c>
       <c r="B429" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C429" t="s" s="0">
-        <v>853</v>
+        <v>819</v>
       </c>
     </row>
     <row r="430">
@@ -32785,10 +32785,10 @@
         <v>420</v>
       </c>
       <c r="B430" t="s" s="0">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C430" t="s" s="0">
-        <v>853</v>
+        <v>871</v>
       </c>
     </row>
     <row r="431">
@@ -32796,18 +32796,18 @@
         <v>420</v>
       </c>
       <c r="B431" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C431" t="s" s="0">
-        <v>853</v>
+        <v>873</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s" s="0">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B432" t="s" s="0">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C432" t="s" s="0">
         <v>853</v>
@@ -32815,43 +32815,43 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="0">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B433" t="s" s="0">
-        <v>286</v>
+        <v>423</v>
       </c>
       <c r="C433" t="s" s="0">
-        <v>842</v>
+        <v>853</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s" s="0">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B434" t="s" s="0">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C434" t="s" s="0">
-        <v>819</v>
+        <v>853</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s" s="0">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B435" t="s" s="0">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C435" t="s" s="0">
-        <v>792</v>
+        <v>853</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s" s="0">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B436" t="s" s="0">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C436" t="s" s="0">
         <v>853</v>
@@ -32859,43 +32859,43 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="0">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B437" t="s" s="0">
-        <v>439</v>
+        <v>286</v>
       </c>
       <c r="C437" t="s" s="0">
-        <v>853</v>
+        <v>842</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s" s="0">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B438" t="s" s="0">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C438" t="s" s="0">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s" s="0">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B439" t="s" s="0">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C439" t="s" s="0">
-        <v>835</v>
+        <v>792</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s" s="0">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B440" t="s" s="0">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C440" t="s" s="0">
         <v>853</v>
@@ -32903,46 +32903,46 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="0">
-        <v>212</v>
+        <v>437</v>
       </c>
       <c r="B441" t="s" s="0">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C441" t="s" s="0">
-        <v>794</v>
+        <v>853</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s" s="0">
-        <v>212</v>
+        <v>437</v>
       </c>
       <c r="B442" t="s" s="0">
-        <v>205</v>
+        <v>441</v>
       </c>
       <c r="C442" t="s" s="0">
-        <v>802</v>
+        <v>813</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s" s="0">
-        <v>212</v>
+        <v>437</v>
       </c>
       <c r="B443" t="s" s="0">
-        <v>261</v>
+        <v>438</v>
       </c>
       <c r="C443" t="s" s="0">
-        <v>802</v>
+        <v>835</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="s" s="0">
-        <v>212</v>
+        <v>437</v>
       </c>
       <c r="B444" t="s" s="0">
-        <v>269</v>
+        <v>440</v>
       </c>
       <c r="C444" t="s" s="0">
-        <v>802</v>
+        <v>853</v>
       </c>
     </row>
     <row r="445">
@@ -32950,10 +32950,10 @@
         <v>212</v>
       </c>
       <c r="B445" t="s" s="0">
-        <v>265</v>
+        <v>443</v>
       </c>
       <c r="C445" t="s" s="0">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="446">
@@ -32961,7 +32961,7 @@
         <v>212</v>
       </c>
       <c r="B446" t="s" s="0">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="C446" t="s" s="0">
         <v>802</v>
@@ -32972,7 +32972,7 @@
         <v>212</v>
       </c>
       <c r="B447" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C447" t="s" s="0">
         <v>802</v>
@@ -32983,7 +32983,7 @@
         <v>212</v>
       </c>
       <c r="B448" t="s" s="0">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C448" t="s" s="0">
         <v>802</v>
@@ -32994,7 +32994,7 @@
         <v>212</v>
       </c>
       <c r="B449" t="s" s="0">
-        <v>409</v>
+        <v>265</v>
       </c>
       <c r="C449" t="s" s="0">
         <v>802</v>
@@ -33005,7 +33005,7 @@
         <v>212</v>
       </c>
       <c r="B450" t="s" s="0">
-        <v>442</v>
+        <v>263</v>
       </c>
       <c r="C450" t="s" s="0">
         <v>802</v>
@@ -33016,10 +33016,10 @@
         <v>212</v>
       </c>
       <c r="B451" t="s" s="0">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="C451" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="452">
@@ -33027,54 +33027,54 @@
         <v>212</v>
       </c>
       <c r="B452" t="s" s="0">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="C452" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s" s="0">
-        <v>444</v>
+        <v>212</v>
       </c>
       <c r="B453" t="s" s="0">
-        <v>47</v>
+        <v>409</v>
       </c>
       <c r="C453" t="s" s="0">
-        <v>832</v>
+        <v>802</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s" s="0">
-        <v>444</v>
+        <v>212</v>
       </c>
       <c r="B454" t="s" s="0">
-        <v>246</v>
+        <v>442</v>
       </c>
       <c r="C454" t="s" s="0">
-        <v>832</v>
+        <v>802</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s" s="0">
-        <v>444</v>
+        <v>212</v>
       </c>
       <c r="B455" t="s" s="0">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="C455" t="s" s="0">
-        <v>871</v>
+        <v>798</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s" s="0">
-        <v>444</v>
+        <v>212</v>
       </c>
       <c r="B456" t="s" s="0">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="C456" t="s" s="0">
-        <v>871</v>
+        <v>798</v>
       </c>
     </row>
     <row r="457">
@@ -33082,10 +33082,10 @@
         <v>444</v>
       </c>
       <c r="B457" t="s" s="0">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="C457" t="s" s="0">
-        <v>871</v>
+        <v>832</v>
       </c>
     </row>
     <row r="458">
@@ -33093,10 +33093,10 @@
         <v>444</v>
       </c>
       <c r="B458" t="s" s="0">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="C458" t="s" s="0">
-        <v>871</v>
+        <v>832</v>
       </c>
     </row>
     <row r="459">
@@ -33104,10 +33104,10 @@
         <v>444</v>
       </c>
       <c r="B459" t="s" s="0">
-        <v>452</v>
+        <v>247</v>
       </c>
       <c r="C459" t="s" s="0">
-        <v>832</v>
+        <v>867</v>
       </c>
     </row>
     <row r="460">
@@ -33115,10 +33115,10 @@
         <v>444</v>
       </c>
       <c r="B460" t="s" s="0">
-        <v>447</v>
+        <v>245</v>
       </c>
       <c r="C460" t="s" s="0">
-        <v>798</v>
+        <v>867</v>
       </c>
     </row>
     <row r="461">
@@ -33126,10 +33126,10 @@
         <v>444</v>
       </c>
       <c r="B461" t="s" s="0">
-        <v>449</v>
+        <v>242</v>
       </c>
       <c r="C461" t="s" s="0">
-        <v>798</v>
+        <v>867</v>
       </c>
     </row>
     <row r="462">
@@ -33137,10 +33137,10 @@
         <v>444</v>
       </c>
       <c r="B462" t="s" s="0">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="C462" t="s" s="0">
-        <v>848</v>
+        <v>867</v>
       </c>
     </row>
     <row r="463">
@@ -33148,10 +33148,10 @@
         <v>444</v>
       </c>
       <c r="B463" t="s" s="0">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C463" t="s" s="0">
-        <v>870</v>
+        <v>832</v>
       </c>
     </row>
     <row r="464">
@@ -33159,54 +33159,54 @@
         <v>444</v>
       </c>
       <c r="B464" t="s" s="0">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C464" t="s" s="0">
-        <v>832</v>
+        <v>798</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s" s="0">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="B465" t="s" s="0">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C465" t="s" s="0">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="s" s="0">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="B466" t="s" s="0">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="C466" t="s" s="0">
-        <v>798</v>
+        <v>848</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s" s="0">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="B467" t="s" s="0">
-        <v>68</v>
+        <v>445</v>
       </c>
       <c r="C467" t="s" s="0">
-        <v>798</v>
+        <v>871</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s" s="0">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="B468" t="s" s="0">
-        <v>298</v>
+        <v>451</v>
       </c>
       <c r="C468" t="s" s="0">
-        <v>798</v>
+        <v>832</v>
       </c>
     </row>
     <row r="469">
@@ -33214,10 +33214,10 @@
         <v>44</v>
       </c>
       <c r="B469" t="s" s="0">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C469" t="s" s="0">
-        <v>798</v>
+        <v>814</v>
       </c>
     </row>
     <row r="470">
@@ -33225,7 +33225,7 @@
         <v>44</v>
       </c>
       <c r="B470" t="s" s="0">
-        <v>301</v>
+        <v>72</v>
       </c>
       <c r="C470" t="s" s="0">
         <v>798</v>
@@ -33236,7 +33236,7 @@
         <v>44</v>
       </c>
       <c r="B471" t="s" s="0">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C471" t="s" s="0">
         <v>798</v>
@@ -33247,7 +33247,7 @@
         <v>44</v>
       </c>
       <c r="B472" t="s" s="0">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C472" t="s" s="0">
         <v>798</v>
@@ -33258,7 +33258,7 @@
         <v>44</v>
       </c>
       <c r="B473" t="s" s="0">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C473" t="s" s="0">
         <v>798</v>
@@ -33269,7 +33269,7 @@
         <v>44</v>
       </c>
       <c r="B474" t="s" s="0">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C474" t="s" s="0">
         <v>798</v>
@@ -33280,10 +33280,10 @@
         <v>44</v>
       </c>
       <c r="B475" t="s" s="0">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C475" t="s" s="0">
-        <v>825</v>
+        <v>798</v>
       </c>
     </row>
     <row r="476">
@@ -33291,7 +33291,7 @@
         <v>44</v>
       </c>
       <c r="B476" t="s" s="0">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="C476" t="s" s="0">
         <v>798</v>
@@ -33302,10 +33302,10 @@
         <v>44</v>
       </c>
       <c r="B477" t="s" s="0">
-        <v>22</v>
+        <v>453</v>
       </c>
       <c r="C477" t="s" s="0">
-        <v>870</v>
+        <v>798</v>
       </c>
     </row>
     <row r="478">
@@ -33313,7 +33313,7 @@
         <v>44</v>
       </c>
       <c r="B478" t="s" s="0">
-        <v>11</v>
+        <v>303</v>
       </c>
       <c r="C478" t="s" s="0">
         <v>798</v>
@@ -33321,21 +33321,21 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="0">
-        <v>615</v>
+        <v>44</v>
       </c>
       <c r="B479" t="s" s="0">
-        <v>616</v>
+        <v>5</v>
       </c>
       <c r="C479" t="s" s="0">
-        <v>798</v>
+        <v>825</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s" s="0">
-        <v>615</v>
+        <v>44</v>
       </c>
       <c r="B480" t="s" s="0">
-        <v>617</v>
+        <v>76</v>
       </c>
       <c r="C480" t="s" s="0">
         <v>798</v>
@@ -33343,43 +33343,43 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="0">
-        <v>615</v>
+        <v>44</v>
       </c>
       <c r="B481" t="s" s="0">
-        <v>618</v>
+        <v>22</v>
       </c>
       <c r="C481" t="s" s="0">
-        <v>798</v>
+        <v>871</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s" s="0">
-        <v>456</v>
+        <v>44</v>
       </c>
       <c r="B482" t="s" s="0">
-        <v>457</v>
+        <v>11</v>
       </c>
       <c r="C482" t="s" s="0">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="s" s="0">
-        <v>456</v>
+        <v>615</v>
       </c>
       <c r="B483" t="s" s="0">
-        <v>462</v>
+        <v>616</v>
       </c>
       <c r="C483" t="s" s="0">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s" s="0">
-        <v>456</v>
+        <v>615</v>
       </c>
       <c r="B484" t="s" s="0">
-        <v>466</v>
+        <v>617</v>
       </c>
       <c r="C484" t="s" s="0">
         <v>798</v>
@@ -33387,10 +33387,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="0">
-        <v>456</v>
+        <v>615</v>
       </c>
       <c r="B485" t="s" s="0">
-        <v>463</v>
+        <v>618</v>
       </c>
       <c r="C485" t="s" s="0">
         <v>798</v>
@@ -33401,10 +33401,10 @@
         <v>456</v>
       </c>
       <c r="B486" t="s" s="0">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C486" t="s" s="0">
-        <v>819</v>
+        <v>802</v>
       </c>
     </row>
     <row r="487">
@@ -33412,10 +33412,10 @@
         <v>456</v>
       </c>
       <c r="B487" t="s" s="0">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C487" t="s" s="0">
-        <v>802</v>
+        <v>814</v>
       </c>
     </row>
     <row r="488">
@@ -33423,10 +33423,10 @@
         <v>456</v>
       </c>
       <c r="B488" t="s" s="0">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="C488" t="s" s="0">
-        <v>853</v>
+        <v>798</v>
       </c>
     </row>
     <row r="489">
@@ -33434,62 +33434,62 @@
         <v>456</v>
       </c>
       <c r="B489" t="s" s="0">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C489" t="s" s="0">
-        <v>853</v>
+        <v>798</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s" s="0">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B490" t="s" s="0">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C490" t="s" s="0">
-        <v>853</v>
+        <v>819</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="s" s="0">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B491" t="s" s="0">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C491" t="s" s="0">
-        <v>848</v>
+        <v>802</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s" s="0">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B492" t="s" s="0">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C492" t="s" s="0">
-        <v>873</v>
+        <v>853</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s" s="0">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B493" t="s" s="0">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C493" t="s" s="0">
-        <v>837</v>
+        <v>853</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s" s="0">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B494" t="s" s="0">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C494" t="s" s="0">
         <v>853</v>
@@ -33497,65 +33497,65 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="0">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B495" t="s" s="0">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C495" t="s" s="0">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="s" s="0">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B496" t="s" s="0">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C496" t="s" s="0">
-        <v>832</v>
+        <v>873</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s" s="0">
-        <v>619</v>
+        <v>467</v>
       </c>
       <c r="B497" t="s" s="0">
-        <v>40</v>
+        <v>470</v>
       </c>
       <c r="C497" t="s" s="0">
-        <v>871</v>
+        <v>837</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s" s="0">
-        <v>619</v>
+        <v>472</v>
       </c>
       <c r="B498" t="s" s="0">
-        <v>47</v>
+        <v>473</v>
       </c>
       <c r="C498" t="s" s="0">
-        <v>819</v>
+        <v>853</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s" s="0">
-        <v>619</v>
+        <v>472</v>
       </c>
       <c r="B499" t="s" s="0">
-        <v>620</v>
+        <v>475</v>
       </c>
       <c r="C499" t="s" s="0">
-        <v>832</v>
+        <v>843</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s" s="0">
-        <v>619</v>
+        <v>472</v>
       </c>
       <c r="B500" t="s" s="0">
-        <v>42</v>
+        <v>474</v>
       </c>
       <c r="C500" t="s" s="0">
         <v>832</v>
@@ -33566,10 +33566,10 @@
         <v>619</v>
       </c>
       <c r="B501" t="s" s="0">
-        <v>621</v>
+        <v>40</v>
       </c>
       <c r="C501" t="s" s="0">
-        <v>832</v>
+        <v>867</v>
       </c>
     </row>
     <row r="502">
@@ -33577,10 +33577,10 @@
         <v>619</v>
       </c>
       <c r="B502" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C502" t="s" s="0">
-        <v>866</v>
+        <v>819</v>
       </c>
     </row>
     <row r="503">
@@ -33588,10 +33588,10 @@
         <v>619</v>
       </c>
       <c r="B503" t="s" s="0">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C503" t="s" s="0">
-        <v>843</v>
+        <v>832</v>
       </c>
     </row>
     <row r="504">
@@ -33599,10 +33599,10 @@
         <v>619</v>
       </c>
       <c r="B504" t="s" s="0">
-        <v>808</v>
+        <v>42</v>
       </c>
       <c r="C504" t="s" s="0">
-        <v>853</v>
+        <v>832</v>
       </c>
     </row>
     <row r="505">
@@ -33610,54 +33610,54 @@
         <v>619</v>
       </c>
       <c r="B505" t="s" s="0">
-        <v>807</v>
+        <v>621</v>
       </c>
       <c r="C505" t="s" s="0">
-        <v>853</v>
+        <v>832</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="s" s="0">
-        <v>305</v>
+        <v>619</v>
       </c>
       <c r="B506" t="s" s="0">
-        <v>477</v>
+        <v>45</v>
       </c>
       <c r="C506" t="s" s="0">
-        <v>794</v>
+        <v>866</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s" s="0">
-        <v>305</v>
+        <v>619</v>
       </c>
       <c r="B507" t="s" s="0">
-        <v>205</v>
+        <v>622</v>
       </c>
       <c r="C507" t="s" s="0">
-        <v>802</v>
+        <v>843</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s" s="0">
-        <v>305</v>
+        <v>619</v>
       </c>
       <c r="B508" t="s" s="0">
-        <v>204</v>
+        <v>808</v>
       </c>
       <c r="C508" t="s" s="0">
-        <v>802</v>
+        <v>853</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="s" s="0">
-        <v>305</v>
+        <v>619</v>
       </c>
       <c r="B509" t="s" s="0">
-        <v>476</v>
+        <v>807</v>
       </c>
       <c r="C509" t="s" s="0">
-        <v>802</v>
+        <v>853</v>
       </c>
     </row>
     <row r="510">
@@ -33665,10 +33665,10 @@
         <v>305</v>
       </c>
       <c r="B510" t="s" s="0">
-        <v>207</v>
+        <v>477</v>
       </c>
       <c r="C510" t="s" s="0">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="511">
@@ -33676,10 +33676,10 @@
         <v>305</v>
       </c>
       <c r="B511" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C511" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="512">
@@ -33687,161 +33687,161 @@
         <v>305</v>
       </c>
       <c r="B512" t="s" s="0">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="C512" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s" s="0">
-        <v>478</v>
+        <v>305</v>
       </c>
       <c r="B513" t="s" s="0">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C513" t="s" s="0">
-        <v>853</v>
+        <v>802</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="s" s="0">
-        <v>478</v>
+        <v>305</v>
       </c>
       <c r="B514" t="s" s="0">
-        <v>475</v>
+        <v>207</v>
       </c>
       <c r="C514" t="s" s="0">
-        <v>843</v>
+        <v>802</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="s" s="0">
-        <v>478</v>
+        <v>305</v>
       </c>
       <c r="B515" t="s" s="0">
-        <v>479</v>
+        <v>203</v>
       </c>
       <c r="C515" t="s" s="0">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="s" s="0">
-        <v>481</v>
+        <v>305</v>
       </c>
       <c r="B516" t="s" s="0">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C516" t="s" s="0">
-        <v>792</v>
+        <v>798</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s" s="0">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B517" t="s" s="0">
-        <v>190</v>
+        <v>480</v>
       </c>
       <c r="C517" t="s" s="0">
-        <v>792</v>
+        <v>853</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s" s="0">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B518" t="s" s="0">
-        <v>188</v>
+        <v>475</v>
       </c>
       <c r="C518" t="s" s="0">
-        <v>792</v>
+        <v>843</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s" s="0">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B519" t="s" s="0">
-        <v>45</v>
+        <v>479</v>
       </c>
       <c r="C519" t="s" s="0">
-        <v>792</v>
+        <v>814</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s" s="0">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B520" t="s" s="0">
-        <v>485</v>
+        <v>47</v>
       </c>
       <c r="C520" t="s" s="0">
-        <v>853</v>
+        <v>792</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="s" s="0">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B521" t="s" s="0">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="C521" t="s" s="0">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="s" s="0">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B522" t="s" s="0">
-        <v>486</v>
+        <v>188</v>
       </c>
       <c r="C522" t="s" s="0">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="s" s="0">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B523" t="s" s="0">
-        <v>488</v>
+        <v>45</v>
       </c>
       <c r="C523" t="s" s="0">
-        <v>853</v>
+        <v>792</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="s" s="0">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B524" t="s" s="0">
-        <v>172</v>
+        <v>485</v>
       </c>
       <c r="C524" t="s" s="0">
-        <v>842</v>
+        <v>853</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="s" s="0">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B525" t="s" s="0">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C525" t="s" s="0">
-        <v>841</v>
+        <v>798</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s" s="0">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B526" t="s" s="0">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C526" t="s" s="0">
         <v>798</v>
@@ -33849,35 +33849,35 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="0">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B527" t="s" s="0">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="C527" t="s" s="0">
-        <v>798</v>
+        <v>853</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s" s="0">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B528" t="s" s="0">
-        <v>497</v>
+        <v>172</v>
       </c>
       <c r="C528" t="s" s="0">
-        <v>832</v>
+        <v>842</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s" s="0">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B529" t="s" s="0">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C529" t="s" s="0">
-        <v>819</v>
+        <v>841</v>
       </c>
     </row>
     <row r="530">
@@ -33885,10 +33885,10 @@
         <v>490</v>
       </c>
       <c r="B530" t="s" s="0">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C530" t="s" s="0">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="531">
@@ -33896,10 +33896,10 @@
         <v>490</v>
       </c>
       <c r="B531" t="s" s="0">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="C531" t="s" s="0">
-        <v>853</v>
+        <v>798</v>
       </c>
     </row>
     <row r="532">
@@ -33907,10 +33907,10 @@
         <v>490</v>
       </c>
       <c r="B532" t="s" s="0">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C532" t="s" s="0">
-        <v>853</v>
+        <v>832</v>
       </c>
     </row>
     <row r="533">
@@ -33918,10 +33918,10 @@
         <v>490</v>
       </c>
       <c r="B533" t="s" s="0">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C533" t="s" s="0">
-        <v>853</v>
+        <v>819</v>
       </c>
     </row>
     <row r="534">
@@ -33929,18 +33929,18 @@
         <v>490</v>
       </c>
       <c r="B534" t="s" s="0">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C534" t="s" s="0">
-        <v>853</v>
+        <v>802</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="s" s="0">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B535" t="s" s="0">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C535" t="s" s="0">
         <v>853</v>
@@ -33948,32 +33948,32 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="0">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B536" t="s" s="0">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="C536" t="s" s="0">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s" s="0">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B537" t="s" s="0">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C537" t="s" s="0">
-        <v>835</v>
+        <v>853</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="s" s="0">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B538" t="s" s="0">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="C538" t="s" s="0">
         <v>853</v>
@@ -33981,10 +33981,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="0">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B539" t="s" s="0">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C539" t="s" s="0">
         <v>853</v>
@@ -33992,68 +33992,68 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="0">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B540" t="s" s="0">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C540" t="s" s="0">
-        <v>798</v>
+        <v>843</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="s" s="0">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B541" t="s" s="0">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C541" t="s" s="0">
-        <v>798</v>
+        <v>835</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s" s="0">
-        <v>623</v>
+        <v>500</v>
       </c>
       <c r="B542" t="s" s="0">
-        <v>625</v>
+        <v>503</v>
       </c>
       <c r="C542" t="s" s="0">
-        <v>819</v>
+        <v>853</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s" s="0">
-        <v>623</v>
+        <v>505</v>
       </c>
       <c r="B543" t="s" s="0">
-        <v>626</v>
+        <v>506</v>
       </c>
       <c r="C543" t="s" s="0">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s" s="0">
-        <v>623</v>
+        <v>505</v>
       </c>
       <c r="B544" t="s" s="0">
-        <v>627</v>
+        <v>507</v>
       </c>
       <c r="C544" t="s" s="0">
-        <v>843</v>
+        <v>798</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s" s="0">
-        <v>623</v>
+        <v>505</v>
       </c>
       <c r="B545" t="s" s="0">
-        <v>45</v>
+        <v>508</v>
       </c>
       <c r="C545" t="s" s="0">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="546">
@@ -34061,73 +34061,73 @@
         <v>623</v>
       </c>
       <c r="B546" t="s" s="0">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C546" t="s" s="0">
-        <v>802</v>
+        <v>819</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s" s="0">
-        <v>510</v>
+        <v>623</v>
       </c>
       <c r="B547" t="s" s="0">
-        <v>511</v>
+        <v>626</v>
       </c>
       <c r="C547" t="s" s="0">
-        <v>853</v>
+        <v>843</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="s" s="0">
-        <v>510</v>
+        <v>623</v>
       </c>
       <c r="B548" t="s" s="0">
-        <v>512</v>
+        <v>627</v>
       </c>
       <c r="C548" t="s" s="0">
-        <v>852</v>
+        <v>843</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s" s="0">
-        <v>510</v>
+        <v>623</v>
       </c>
       <c r="B549" t="s" s="0">
-        <v>514</v>
+        <v>45</v>
       </c>
       <c r="C549" t="s" s="0">
-        <v>843</v>
+        <v>802</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="s" s="0">
-        <v>516</v>
+        <v>623</v>
       </c>
       <c r="B550" t="s" s="0">
-        <v>518</v>
+        <v>624</v>
       </c>
       <c r="C550" t="s" s="0">
-        <v>853</v>
+        <v>802</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="s" s="0">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B551" t="s" s="0">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="C551" t="s" s="0">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="s" s="0">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B552" t="s" s="0">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C552" t="s" s="0">
         <v>852</v>
@@ -34135,13 +34135,13 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="0">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B553" t="s" s="0">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C553" t="s" s="0">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="554">
@@ -34149,7 +34149,7 @@
         <v>516</v>
       </c>
       <c r="B554" t="s" s="0">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C554" t="s" s="0">
         <v>853</v>
@@ -34157,46 +34157,46 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="0">
-        <v>387</v>
+        <v>516</v>
       </c>
       <c r="B555" t="s" s="0">
-        <v>525</v>
+        <v>471</v>
       </c>
       <c r="C555" t="s" s="0">
-        <v>794</v>
+        <v>848</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="s" s="0">
-        <v>387</v>
+        <v>516</v>
       </c>
       <c r="B556" t="s" s="0">
-        <v>205</v>
+        <v>517</v>
       </c>
       <c r="C556" t="s" s="0">
-        <v>802</v>
+        <v>852</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="s" s="0">
-        <v>387</v>
+        <v>516</v>
       </c>
       <c r="B557" t="s" s="0">
-        <v>407</v>
+        <v>519</v>
       </c>
       <c r="C557" t="s" s="0">
-        <v>802</v>
+        <v>841</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="s" s="0">
-        <v>387</v>
+        <v>516</v>
       </c>
       <c r="B558" t="s" s="0">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C558" t="s" s="0">
-        <v>802</v>
+        <v>853</v>
       </c>
     </row>
     <row r="559">
@@ -34204,10 +34204,10 @@
         <v>387</v>
       </c>
       <c r="B559" t="s" s="0">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C559" t="s" s="0">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="560">
@@ -34215,7 +34215,7 @@
         <v>387</v>
       </c>
       <c r="B560" t="s" s="0">
-        <v>523</v>
+        <v>205</v>
       </c>
       <c r="C560" t="s" s="0">
         <v>802</v>
@@ -34226,7 +34226,7 @@
         <v>387</v>
       </c>
       <c r="B561" t="s" s="0">
-        <v>524</v>
+        <v>407</v>
       </c>
       <c r="C561" t="s" s="0">
         <v>802</v>
@@ -34237,7 +34237,7 @@
         <v>387</v>
       </c>
       <c r="B562" t="s" s="0">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C562" t="s" s="0">
         <v>802</v>
@@ -34248,7 +34248,7 @@
         <v>387</v>
       </c>
       <c r="B563" t="s" s="0">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="C563" t="s" s="0">
         <v>802</v>
@@ -34259,7 +34259,7 @@
         <v>387</v>
       </c>
       <c r="B564" t="s" s="0">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="C564" t="s" s="0">
         <v>802</v>
@@ -34270,7 +34270,7 @@
         <v>387</v>
       </c>
       <c r="B565" t="s" s="0">
-        <v>376</v>
+        <v>524</v>
       </c>
       <c r="C565" t="s" s="0">
         <v>802</v>
@@ -34281,7 +34281,7 @@
         <v>387</v>
       </c>
       <c r="B566" t="s" s="0">
-        <v>375</v>
+        <v>522</v>
       </c>
       <c r="C566" t="s" s="0">
         <v>802</v>
@@ -34292,10 +34292,10 @@
         <v>387</v>
       </c>
       <c r="B567" t="s" s="0">
-        <v>203</v>
+        <v>377</v>
       </c>
       <c r="C567" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="568">
@@ -34303,29 +34303,29 @@
         <v>387</v>
       </c>
       <c r="B568" t="s" s="0">
-        <v>11</v>
+        <v>379</v>
       </c>
       <c r="C568" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="s" s="0">
-        <v>527</v>
+        <v>387</v>
       </c>
       <c r="B569" t="s" s="0">
-        <v>529</v>
+        <v>376</v>
       </c>
       <c r="C569" t="s" s="0">
-        <v>853</v>
+        <v>802</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="s" s="0">
-        <v>527</v>
+        <v>387</v>
       </c>
       <c r="B570" t="s" s="0">
-        <v>528</v>
+        <v>375</v>
       </c>
       <c r="C570" t="s" s="0">
         <v>802</v>
@@ -34333,32 +34333,32 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="0">
-        <v>527</v>
+        <v>387</v>
       </c>
       <c r="B571" t="s" s="0">
-        <v>342</v>
+        <v>203</v>
       </c>
       <c r="C571" t="s" s="0">
-        <v>832</v>
+        <v>798</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="s" s="0">
-        <v>527</v>
+        <v>387</v>
       </c>
       <c r="B572" t="s" s="0">
-        <v>530</v>
+        <v>11</v>
       </c>
       <c r="C572" t="s" s="0">
-        <v>853</v>
+        <v>798</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="s" s="0">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B573" t="s" s="0">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C573" t="s" s="0">
         <v>853</v>
@@ -34366,32 +34366,32 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="0">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B574" t="s" s="0">
-        <v>331</v>
+        <v>528</v>
       </c>
       <c r="C574" t="s" s="0">
-        <v>842</v>
+        <v>802</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s" s="0">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B575" t="s" s="0">
-        <v>534</v>
+        <v>342</v>
       </c>
       <c r="C575" t="s" s="0">
-        <v>873</v>
+        <v>832</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="s" s="0">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B576" t="s" s="0">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C576" t="s" s="0">
         <v>853</v>
@@ -34402,7 +34402,7 @@
         <v>531</v>
       </c>
       <c r="B577" t="s" s="0">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C577" t="s" s="0">
         <v>853</v>
@@ -34413,10 +34413,10 @@
         <v>531</v>
       </c>
       <c r="B578" t="s" s="0">
-        <v>537</v>
+        <v>331</v>
       </c>
       <c r="C578" t="s" s="0">
-        <v>853</v>
+        <v>842</v>
       </c>
     </row>
     <row r="579">
@@ -34424,18 +34424,18 @@
         <v>531</v>
       </c>
       <c r="B579" t="s" s="0">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C579" t="s" s="0">
-        <v>853</v>
+        <v>873</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="s" s="0">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B580" t="s" s="0">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C580" t="s" s="0">
         <v>853</v>
@@ -34443,68 +34443,68 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="0">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B581" t="s" s="0">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C581" t="s" s="0">
-        <v>842</v>
+        <v>853</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s" s="0">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B582" t="s" s="0">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C582" t="s" s="0">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="s" s="0">
-        <v>26</v>
+        <v>531</v>
       </c>
       <c r="B583" t="s" s="0">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C583" t="s" s="0">
-        <v>798</v>
+        <v>853</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="s" s="0">
-        <v>26</v>
+        <v>538</v>
       </c>
       <c r="B584" t="s" s="0">
-        <v>72</v>
+        <v>541</v>
       </c>
       <c r="C584" t="s" s="0">
-        <v>798</v>
+        <v>853</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s" s="0">
-        <v>26</v>
+        <v>538</v>
       </c>
       <c r="B585" t="s" s="0">
-        <v>68</v>
+        <v>540</v>
       </c>
       <c r="C585" t="s" s="0">
-        <v>798</v>
+        <v>842</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="s" s="0">
-        <v>26</v>
+        <v>538</v>
       </c>
       <c r="B586" t="s" s="0">
-        <v>78</v>
+        <v>539</v>
       </c>
       <c r="C586" t="s" s="0">
-        <v>798</v>
+        <v>860</v>
       </c>
     </row>
     <row r="587">
@@ -34512,7 +34512,7 @@
         <v>26</v>
       </c>
       <c r="B587" t="s" s="0">
-        <v>70</v>
+        <v>542</v>
       </c>
       <c r="C587" t="s" s="0">
         <v>798</v>
@@ -34523,7 +34523,7 @@
         <v>26</v>
       </c>
       <c r="B588" t="s" s="0">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C588" t="s" s="0">
         <v>798</v>
@@ -34534,7 +34534,7 @@
         <v>26</v>
       </c>
       <c r="B589" t="s" s="0">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C589" t="s" s="0">
         <v>798</v>
@@ -34545,7 +34545,7 @@
         <v>26</v>
       </c>
       <c r="B590" t="s" s="0">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="C590" t="s" s="0">
         <v>798</v>
@@ -34556,7 +34556,7 @@
         <v>26</v>
       </c>
       <c r="B591" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C591" t="s" s="0">
         <v>798</v>
@@ -34567,7 +34567,7 @@
         <v>26</v>
       </c>
       <c r="B592" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C592" t="s" s="0">
         <v>798</v>
@@ -34578,7 +34578,7 @@
         <v>26</v>
       </c>
       <c r="B593" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C593" t="s" s="0">
         <v>798</v>
@@ -34589,7 +34589,7 @@
         <v>26</v>
       </c>
       <c r="B594" t="s" s="0">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="C594" t="s" s="0">
         <v>798</v>
@@ -34600,7 +34600,7 @@
         <v>26</v>
       </c>
       <c r="B595" t="s" s="0">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C595" t="s" s="0">
         <v>798</v>
@@ -34611,7 +34611,7 @@
         <v>26</v>
       </c>
       <c r="B596" t="s" s="0">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="C596" t="s" s="0">
         <v>798</v>
@@ -34622,10 +34622,10 @@
         <v>26</v>
       </c>
       <c r="B597" t="s" s="0">
-        <v>543</v>
+        <v>77</v>
       </c>
       <c r="C597" t="s" s="0">
-        <v>871</v>
+        <v>798</v>
       </c>
     </row>
     <row r="598">
@@ -34633,76 +34633,76 @@
         <v>26</v>
       </c>
       <c r="B598" t="s" s="0">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="C598" t="s" s="0">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="s" s="0">
-        <v>545</v>
+        <v>26</v>
       </c>
       <c r="B599" t="s" s="0">
-        <v>546</v>
+        <v>82</v>
       </c>
       <c r="C599" t="s" s="0">
-        <v>792</v>
+        <v>798</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="s" s="0">
-        <v>545</v>
+        <v>26</v>
       </c>
       <c r="B600" t="s" s="0">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="C600" t="s" s="0">
-        <v>792</v>
+        <v>798</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="s" s="0">
-        <v>547</v>
+        <v>26</v>
       </c>
       <c r="B601" t="s" s="0">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="C601" t="s" s="0">
-        <v>798</v>
+        <v>867</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="s" s="0">
-        <v>547</v>
+        <v>26</v>
       </c>
       <c r="B602" t="s" s="0">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="C602" t="s" s="0">
-        <v>868</v>
+        <v>794</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="s" s="0">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B603" t="s" s="0">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C603" t="s" s="0">
-        <v>868</v>
+        <v>792</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="s" s="0">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B604" t="s" s="0">
-        <v>556</v>
+        <v>233</v>
       </c>
       <c r="C604" t="s" s="0">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="605">
@@ -34710,10 +34710,10 @@
         <v>547</v>
       </c>
       <c r="B605" t="s" s="0">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C605" t="s" s="0">
-        <v>832</v>
+        <v>798</v>
       </c>
     </row>
     <row r="606">
@@ -34721,10 +34721,10 @@
         <v>547</v>
       </c>
       <c r="B606" t="s" s="0">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C606" t="s" s="0">
-        <v>853</v>
+        <v>869</v>
       </c>
     </row>
     <row r="607">
@@ -34732,10 +34732,10 @@
         <v>547</v>
       </c>
       <c r="B607" t="s" s="0">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C607" t="s" s="0">
-        <v>853</v>
+        <v>869</v>
       </c>
     </row>
     <row r="608">
@@ -34743,10 +34743,10 @@
         <v>547</v>
       </c>
       <c r="B608" t="s" s="0">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C608" t="s" s="0">
-        <v>853</v>
+        <v>802</v>
       </c>
     </row>
     <row r="609">
@@ -34754,10 +34754,10 @@
         <v>547</v>
       </c>
       <c r="B609" t="s" s="0">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C609" t="s" s="0">
-        <v>853</v>
+        <v>832</v>
       </c>
     </row>
     <row r="610">
@@ -34765,7 +34765,7 @@
         <v>547</v>
       </c>
       <c r="B610" t="s" s="0">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="C610" t="s" s="0">
         <v>853</v>
@@ -34773,10 +34773,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="0">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B611" t="s" s="0">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C611" t="s" s="0">
         <v>853</v>
@@ -34784,32 +34784,32 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="0">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B612" t="s" s="0">
-        <v>319</v>
+        <v>553</v>
       </c>
       <c r="C612" t="s" s="0">
-        <v>802</v>
+        <v>853</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="s" s="0">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B613" t="s" s="0">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C613" t="s" s="0">
-        <v>814</v>
+        <v>853</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="s" s="0">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B614" t="s" s="0">
-        <v>317</v>
+        <v>548</v>
       </c>
       <c r="C614" t="s" s="0">
         <v>853</v>
@@ -34817,10 +34817,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s" s="0">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B615" t="s" s="0">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C615" t="s" s="0">
         <v>853</v>
@@ -34828,32 +34828,32 @@
     </row>
     <row r="616">
       <c r="A616" t="s" s="0">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B616" t="s" s="0">
-        <v>565</v>
+        <v>319</v>
       </c>
       <c r="C616" t="s" s="0">
-        <v>843</v>
+        <v>802</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="s" s="0">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B617" t="s" s="0">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C617" t="s" s="0">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="s" s="0">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B618" t="s" s="0">
-        <v>567</v>
+        <v>317</v>
       </c>
       <c r="C618" t="s" s="0">
         <v>853</v>
@@ -34861,10 +34861,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="0">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B619" t="s" s="0">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C619" t="s" s="0">
         <v>853</v>
@@ -34872,35 +34872,35 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="0">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B620" t="s" s="0">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C620" t="s" s="0">
-        <v>866</v>
+        <v>843</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="s" s="0">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B621" t="s" s="0">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C621" t="s" s="0">
-        <v>870</v>
+        <v>813</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="s" s="0">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B622" t="s" s="0">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C622" t="s" s="0">
-        <v>837</v>
+        <v>853</v>
       </c>
     </row>
     <row r="623">
@@ -34908,7 +34908,7 @@
         <v>569</v>
       </c>
       <c r="B623" t="s" s="0">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C623" t="s" s="0">
         <v>853</v>
@@ -34916,43 +34916,43 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="0">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B624" t="s" s="0">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C624" t="s" s="0">
-        <v>798</v>
+        <v>866</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="s" s="0">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B625" t="s" s="0">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C625" t="s" s="0">
-        <v>802</v>
+        <v>871</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="s" s="0">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B626" t="s" s="0">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C626" t="s" s="0">
-        <v>798</v>
+        <v>837</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="s" s="0">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B627" t="s" s="0">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C627" t="s" s="0">
         <v>853</v>
@@ -34960,10 +34960,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="0">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B628" t="s" s="0">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C628" t="s" s="0">
         <v>798</v>
@@ -34971,57 +34971,57 @@
     </row>
     <row r="629">
       <c r="A629" t="s" s="0">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B629" t="s" s="0">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C629" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="s" s="0">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B630" t="s" s="0">
-        <v>47</v>
+        <v>577</v>
       </c>
       <c r="C630" t="s" s="0">
-        <v>832</v>
+        <v>798</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="s" s="0">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B631" t="s" s="0">
-        <v>326</v>
+        <v>582</v>
       </c>
       <c r="C631" t="s" s="0">
-        <v>871</v>
+        <v>853</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="s" s="0">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B632" t="s" s="0">
-        <v>327</v>
+        <v>583</v>
       </c>
       <c r="C632" t="s" s="0">
-        <v>871</v>
+        <v>798</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="s" s="0">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B633" t="s" s="0">
-        <v>45</v>
+        <v>581</v>
       </c>
       <c r="C633" t="s" s="0">
-        <v>852</v>
+        <v>798</v>
       </c>
     </row>
     <row r="634">
@@ -35029,10 +35029,10 @@
         <v>584</v>
       </c>
       <c r="B634" t="s" s="0">
-        <v>585</v>
+        <v>47</v>
       </c>
       <c r="C634" t="s" s="0">
-        <v>798</v>
+        <v>832</v>
       </c>
     </row>
     <row r="635">
@@ -35040,10 +35040,10 @@
         <v>584</v>
       </c>
       <c r="B635" t="s" s="0">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C635" t="s" s="0">
-        <v>848</v>
+        <v>867</v>
       </c>
     </row>
     <row r="636">
@@ -35051,10 +35051,10 @@
         <v>584</v>
       </c>
       <c r="B636" t="s" s="0">
-        <v>586</v>
+        <v>327</v>
       </c>
       <c r="C636" t="s" s="0">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="637">
@@ -35062,40 +35062,40 @@
         <v>584</v>
       </c>
       <c r="B637" t="s" s="0">
-        <v>587</v>
+        <v>45</v>
       </c>
       <c r="C637" t="s" s="0">
-        <v>814</v>
+        <v>852</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="s" s="0">
-        <v>628</v>
+        <v>584</v>
       </c>
       <c r="B638" t="s" s="0">
-        <v>634</v>
+        <v>585</v>
       </c>
       <c r="C638" t="s" s="0">
-        <v>871</v>
+        <v>798</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="s" s="0">
-        <v>628</v>
+        <v>584</v>
       </c>
       <c r="B639" t="s" s="0">
-        <v>47</v>
+        <v>328</v>
       </c>
       <c r="C639" t="s" s="0">
-        <v>819</v>
+        <v>848</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="s" s="0">
-        <v>628</v>
+        <v>584</v>
       </c>
       <c r="B640" t="s" s="0">
-        <v>247</v>
+        <v>586</v>
       </c>
       <c r="C640" t="s" s="0">
         <v>871</v>
@@ -35103,13 +35103,13 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="0">
-        <v>628</v>
+        <v>584</v>
       </c>
       <c r="B641" t="s" s="0">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="C641" t="s" s="0">
-        <v>832</v>
+        <v>814</v>
       </c>
     </row>
     <row r="642">
@@ -35117,10 +35117,10 @@
         <v>628</v>
       </c>
       <c r="B642" t="s" s="0">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C642" t="s" s="0">
-        <v>843</v>
+        <v>867</v>
       </c>
     </row>
     <row r="643">
@@ -35128,10 +35128,10 @@
         <v>628</v>
       </c>
       <c r="B643" t="s" s="0">
-        <v>633</v>
+        <v>47</v>
       </c>
       <c r="C643" t="s" s="0">
-        <v>832</v>
+        <v>819</v>
       </c>
     </row>
     <row r="644">
@@ -35139,10 +35139,10 @@
         <v>628</v>
       </c>
       <c r="B644" t="s" s="0">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="C644" t="s" s="0">
-        <v>814</v>
+        <v>867</v>
       </c>
     </row>
     <row r="645">
@@ -35150,10 +35150,10 @@
         <v>628</v>
       </c>
       <c r="B645" t="s" s="0">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C645" t="s" s="0">
-        <v>843</v>
+        <v>832</v>
       </c>
     </row>
     <row r="646">
@@ -35161,54 +35161,54 @@
         <v>628</v>
       </c>
       <c r="B646" t="s" s="0">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C646" t="s" s="0">
-        <v>814</v>
+        <v>843</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="s" s="0">
-        <v>20</v>
+        <v>628</v>
       </c>
       <c r="B647" t="s" s="0">
-        <v>592</v>
+        <v>633</v>
       </c>
       <c r="C647" t="s" s="0">
-        <v>843</v>
+        <v>832</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="s" s="0">
-        <v>20</v>
+        <v>628</v>
       </c>
       <c r="B648" t="s" s="0">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C648" t="s" s="0">
-        <v>798</v>
+        <v>814</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="s" s="0">
-        <v>20</v>
+        <v>628</v>
       </c>
       <c r="B649" t="s" s="0">
-        <v>589</v>
+        <v>632</v>
       </c>
       <c r="C649" t="s" s="0">
-        <v>814</v>
+        <v>843</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="s" s="0">
-        <v>20</v>
+        <v>628</v>
       </c>
       <c r="B650" t="s" s="0">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="C650" t="s" s="0">
-        <v>794</v>
+        <v>814</v>
       </c>
     </row>
     <row r="651">
@@ -35216,10 +35216,10 @@
         <v>20</v>
       </c>
       <c r="B651" t="s" s="0">
-        <v>68</v>
+        <v>592</v>
       </c>
       <c r="C651" t="s" s="0">
-        <v>798</v>
+        <v>843</v>
       </c>
     </row>
     <row r="652">
@@ -35227,7 +35227,7 @@
         <v>20</v>
       </c>
       <c r="B652" t="s" s="0">
-        <v>588</v>
+        <v>72</v>
       </c>
       <c r="C652" t="s" s="0">
         <v>798</v>
@@ -35238,10 +35238,10 @@
         <v>20</v>
       </c>
       <c r="B653" t="s" s="0">
-        <v>301</v>
+        <v>589</v>
       </c>
       <c r="C653" t="s" s="0">
-        <v>798</v>
+        <v>814</v>
       </c>
     </row>
     <row r="654">
@@ -35249,10 +35249,10 @@
         <v>20</v>
       </c>
       <c r="B654" t="s" s="0">
-        <v>298</v>
+        <v>590</v>
       </c>
       <c r="C654" t="s" s="0">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="655">
@@ -35260,7 +35260,7 @@
         <v>20</v>
       </c>
       <c r="B655" t="s" s="0">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C655" t="s" s="0">
         <v>798</v>
@@ -35271,7 +35271,7 @@
         <v>20</v>
       </c>
       <c r="B656" t="s" s="0">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C656" t="s" s="0">
         <v>798</v>
@@ -35282,7 +35282,7 @@
         <v>20</v>
       </c>
       <c r="B657" t="s" s="0">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C657" t="s" s="0">
         <v>798</v>
@@ -35293,7 +35293,7 @@
         <v>20</v>
       </c>
       <c r="B658" t="s" s="0">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C658" t="s" s="0">
         <v>798</v>
@@ -35301,54 +35301,54 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="0">
-        <v>593</v>
+        <v>20</v>
       </c>
       <c r="B659" t="s" s="0">
-        <v>594</v>
+        <v>74</v>
       </c>
       <c r="C659" t="s" s="0">
-        <v>853</v>
+        <v>798</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="s" s="0">
-        <v>593</v>
+        <v>20</v>
       </c>
       <c r="B660" t="s" s="0">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C660" t="s" s="0">
-        <v>843</v>
+        <v>798</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="s" s="0">
-        <v>593</v>
+        <v>20</v>
       </c>
       <c r="B661" t="s" s="0">
-        <v>596</v>
+        <v>303</v>
       </c>
       <c r="C661" t="s" s="0">
-        <v>860</v>
+        <v>798</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="s" s="0">
-        <v>593</v>
+        <v>20</v>
       </c>
       <c r="B662" t="s" s="0">
-        <v>597</v>
+        <v>302</v>
       </c>
       <c r="C662" t="s" s="0">
-        <v>853</v>
+        <v>798</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="s" s="0">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B663" t="s" s="0">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C663" t="s" s="0">
         <v>853</v>
@@ -35356,32 +35356,32 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="0">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B664" t="s" s="0">
-        <v>37</v>
+        <v>595</v>
       </c>
       <c r="C664" t="s" s="0">
-        <v>802</v>
+        <v>843</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="s" s="0">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B665" t="s" s="0">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C665" t="s" s="0">
-        <v>814</v>
+        <v>860</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="s" s="0">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B666" t="s" s="0">
-        <v>34</v>
+        <v>597</v>
       </c>
       <c r="C666" t="s" s="0">
         <v>853</v>
@@ -35389,46 +35389,46 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="0">
-        <v>93</v>
+        <v>598</v>
       </c>
       <c r="B667" t="s" s="0">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="C667" t="s" s="0">
-        <v>870</v>
+        <v>853</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="s" s="0">
-        <v>93</v>
+        <v>598</v>
       </c>
       <c r="B668" t="s" s="0">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C668" t="s" s="0">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="s" s="0">
-        <v>93</v>
+        <v>598</v>
       </c>
       <c r="B669" t="s" s="0">
-        <v>68</v>
+        <v>600</v>
       </c>
       <c r="C669" t="s" s="0">
-        <v>798</v>
+        <v>814</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="s" s="0">
-        <v>93</v>
+        <v>598</v>
       </c>
       <c r="B670" t="s" s="0">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C670" t="s" s="0">
-        <v>798</v>
+        <v>853</v>
       </c>
     </row>
     <row r="671">
@@ -35436,10 +35436,10 @@
         <v>93</v>
       </c>
       <c r="B671" t="s" s="0">
-        <v>110</v>
+        <v>609</v>
       </c>
       <c r="C671" t="s" s="0">
-        <v>798</v>
+        <v>871</v>
       </c>
     </row>
     <row r="672">
@@ -35447,7 +35447,7 @@
         <v>93</v>
       </c>
       <c r="B672" t="s" s="0">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C672" t="s" s="0">
         <v>798</v>
@@ -35458,7 +35458,7 @@
         <v>93</v>
       </c>
       <c r="B673" t="s" s="0">
-        <v>602</v>
+        <v>68</v>
       </c>
       <c r="C673" t="s" s="0">
         <v>798</v>
@@ -35469,7 +35469,7 @@
         <v>93</v>
       </c>
       <c r="B674" t="s" s="0">
-        <v>603</v>
+        <v>98</v>
       </c>
       <c r="C674" t="s" s="0">
         <v>798</v>
@@ -35480,7 +35480,7 @@
         <v>93</v>
       </c>
       <c r="B675" t="s" s="0">
-        <v>601</v>
+        <v>110</v>
       </c>
       <c r="C675" t="s" s="0">
         <v>798</v>
@@ -35491,7 +35491,7 @@
         <v>93</v>
       </c>
       <c r="B676" t="s" s="0">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C676" t="s" s="0">
         <v>798</v>
@@ -35502,7 +35502,7 @@
         <v>93</v>
       </c>
       <c r="B677" t="s" s="0">
-        <v>108</v>
+        <v>602</v>
       </c>
       <c r="C677" t="s" s="0">
         <v>798</v>
@@ -35513,7 +35513,7 @@
         <v>93</v>
       </c>
       <c r="B678" t="s" s="0">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C678" t="s" s="0">
         <v>798</v>
@@ -35524,7 +35524,7 @@
         <v>93</v>
       </c>
       <c r="B679" t="s" s="0">
-        <v>112</v>
+        <v>601</v>
       </c>
       <c r="C679" t="s" s="0">
         <v>798</v>
@@ -35535,7 +35535,7 @@
         <v>93</v>
       </c>
       <c r="B680" t="s" s="0">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C680" t="s" s="0">
         <v>798</v>
@@ -35546,7 +35546,7 @@
         <v>93</v>
       </c>
       <c r="B681" t="s" s="0">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C681" t="s" s="0">
         <v>798</v>
@@ -35557,7 +35557,7 @@
         <v>93</v>
       </c>
       <c r="B682" t="s" s="0">
-        <v>103</v>
+        <v>604</v>
       </c>
       <c r="C682" t="s" s="0">
         <v>798</v>
@@ -35568,7 +35568,7 @@
         <v>93</v>
       </c>
       <c r="B683" t="s" s="0">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C683" t="s" s="0">
         <v>798</v>
@@ -35579,7 +35579,7 @@
         <v>93</v>
       </c>
       <c r="B684" t="s" s="0">
-        <v>608</v>
+        <v>74</v>
       </c>
       <c r="C684" t="s" s="0">
         <v>798</v>
@@ -35590,7 +35590,7 @@
         <v>93</v>
       </c>
       <c r="B685" t="s" s="0">
-        <v>606</v>
+        <v>94</v>
       </c>
       <c r="C685" t="s" s="0">
         <v>798</v>
@@ -35601,7 +35601,7 @@
         <v>93</v>
       </c>
       <c r="B686" t="s" s="0">
-        <v>607</v>
+        <v>103</v>
       </c>
       <c r="C686" t="s" s="0">
         <v>798</v>
@@ -35612,7 +35612,7 @@
         <v>93</v>
       </c>
       <c r="B687" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C687" t="s" s="0">
         <v>798</v>
@@ -35623,7 +35623,7 @@
         <v>93</v>
       </c>
       <c r="B688" t="s" s="0">
-        <v>86</v>
+        <v>608</v>
       </c>
       <c r="C688" t="s" s="0">
         <v>798</v>
@@ -35634,7 +35634,7 @@
         <v>93</v>
       </c>
       <c r="B689" t="s" s="0">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C689" t="s" s="0">
         <v>798</v>
@@ -35645,7 +35645,7 @@
         <v>93</v>
       </c>
       <c r="B690" t="s" s="0">
-        <v>113</v>
+        <v>607</v>
       </c>
       <c r="C690" t="s" s="0">
         <v>798</v>
@@ -35656,10 +35656,10 @@
         <v>93</v>
       </c>
       <c r="B691" t="s" s="0">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C691" t="s" s="0">
-        <v>874</v>
+        <v>798</v>
       </c>
     </row>
     <row r="692">
@@ -35667,7 +35667,7 @@
         <v>93</v>
       </c>
       <c r="B692" t="s" s="0">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C692" t="s" s="0">
         <v>798</v>
@@ -35678,10 +35678,10 @@
         <v>93</v>
       </c>
       <c r="B693" t="s" s="0">
-        <v>22</v>
+        <v>605</v>
       </c>
       <c r="C693" t="s" s="0">
-        <v>830</v>
+        <v>798</v>
       </c>
     </row>
     <row r="694">
@@ -35689,7 +35689,7 @@
         <v>93</v>
       </c>
       <c r="B694" t="s" s="0">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="C694" t="s" s="0">
         <v>798</v>
@@ -35697,79 +35697,79 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="0">
-        <v>610</v>
+        <v>93</v>
       </c>
       <c r="B695" t="s" s="0">
-        <v>611</v>
+        <v>5</v>
       </c>
       <c r="C695" t="s" s="0">
-        <v>853</v>
+        <v>874</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="s" s="0">
-        <v>610</v>
+        <v>93</v>
       </c>
       <c r="B696" t="s" s="0">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="C696" t="s" s="0">
-        <v>871</v>
+        <v>798</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="s" s="0">
-        <v>610</v>
+        <v>93</v>
       </c>
       <c r="B697" t="s" s="0">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C697" t="s" s="0">
-        <v>814</v>
+        <v>830</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="s" s="0">
-        <v>635</v>
+        <v>93</v>
       </c>
       <c r="B698" t="s" s="0">
-        <v>625</v>
+        <v>11</v>
       </c>
       <c r="C698" t="s" s="0">
-        <v>819</v>
+        <v>798</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="s" s="0">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="B699" t="s" s="0">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="C699" t="s" s="0">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="s" s="0">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="B700" t="s" s="0">
-        <v>638</v>
+        <v>199</v>
       </c>
       <c r="C700" t="s" s="0">
-        <v>843</v>
+        <v>867</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="s" s="0">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="B701" t="s" s="0">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C701" t="s" s="0">
-        <v>832</v>
+        <v>814</v>
       </c>
     </row>
     <row r="702">
@@ -35777,10 +35777,10 @@
         <v>635</v>
       </c>
       <c r="B702" t="s" s="0">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="C702" t="s" s="0">
-        <v>843</v>
+        <v>819</v>
       </c>
     </row>
     <row r="703">
@@ -35788,9 +35788,53 @@
         <v>635</v>
       </c>
       <c r="B703" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="C703" t="s" s="0">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="B704" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="C704" t="s" s="0">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="B705" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C705" t="s" s="0">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="B706" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="C706" t="s" s="0">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="B707" t="s" s="0">
         <v>636</v>
       </c>
-      <c r="C703" t="s" s="0">
+      <c r="C707" t="s" s="0">
         <v>802</v>
       </c>
     </row>
@@ -41053,7 +41097,7 @@
         <v>17</v>
       </c>
       <c r="D298" t="s" s="0">
-        <v>414</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299">
@@ -41061,13 +41105,13 @@
         <v>547</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>767</v>
+        <v>648</v>
       </c>
       <c r="C299" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D299" t="s" s="0">
-        <v>12</v>
+        <v>432</v>
       </c>
     </row>
     <row r="300">
@@ -41075,13 +41119,13 @@
         <v>547</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>650</v>
+        <v>767</v>
       </c>
       <c r="C300" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D300" t="s" s="0">
-        <v>509</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301">
@@ -41095,7 +41139,7 @@
         <v>17</v>
       </c>
       <c r="D301" t="s" s="0">
-        <v>12</v>
+        <v>414</v>
       </c>
     </row>
     <row r="302">
@@ -41103,13 +41147,13 @@
         <v>547</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C302" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D302" t="s" s="0">
-        <v>401</v>
+        <v>545</v>
       </c>
     </row>
     <row r="303">
@@ -41117,13 +41161,13 @@
         <v>547</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>769</v>
+        <v>647</v>
       </c>
       <c r="C303" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D303" t="s" s="0">
-        <v>12</v>
+        <v>401</v>
       </c>
     </row>
     <row r="304">
@@ -41145,13 +41189,13 @@
         <v>547</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C305" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D305" t="s" s="0">
-        <v>432</v>
+        <v>509</v>
       </c>
     </row>
     <row r="306">
@@ -41159,13 +41203,13 @@
         <v>547</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>645</v>
+        <v>769</v>
       </c>
       <c r="C306" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D306" t="s" s="0">
-        <v>545</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307">
@@ -41243,13 +41287,13 @@
         <v>584</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>755</v>
+        <v>648</v>
       </c>
       <c r="C312" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D312" t="s" s="0">
-        <v>756</v>
+        <v>432</v>
       </c>
     </row>
     <row r="313">
@@ -41257,13 +41301,13 @@
         <v>584</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>648</v>
+        <v>771</v>
       </c>
       <c r="C313" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D313" t="s" s="0">
-        <v>432</v>
+        <v>12</v>
       </c>
     </row>
     <row r="314">
@@ -41285,13 +41329,13 @@
         <v>584</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="C315" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D315" t="s" s="0">
-        <v>12</v>
+        <v>756</v>
       </c>
     </row>
     <row r="316">
@@ -41299,13 +41343,13 @@
         <v>584</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="C316" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D316" t="s" s="0">
-        <v>414</v>
+        <v>753</v>
       </c>
     </row>
     <row r="317">
@@ -41313,13 +41357,13 @@
         <v>584</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="C317" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D317" t="s" s="0">
-        <v>753</v>
+        <v>414</v>
       </c>
     </row>
     <row r="318">
@@ -41383,13 +41427,13 @@
         <v>628</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>692</v>
+        <v>776</v>
       </c>
       <c r="C322" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D322" t="s" s="0">
-        <v>241</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323">
@@ -41397,13 +41441,13 @@
         <v>628</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C323" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D323" t="s" s="0">
-        <v>12</v>
+        <v>321</v>
       </c>
     </row>
     <row r="324">
@@ -41411,13 +41455,13 @@
         <v>628</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C324" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D324" t="s" s="0">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="325">
@@ -41425,13 +41469,13 @@
         <v>628</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="C325" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D325" t="s" s="0">
-        <v>159</v>
+        <v>12</v>
       </c>
     </row>
     <row r="326">
@@ -41439,13 +41483,13 @@
         <v>628</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>737</v>
+        <v>778</v>
       </c>
       <c r="C326" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D326" t="s" s="0">
-        <v>224</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327">
@@ -41453,7 +41497,7 @@
         <v>628</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C327" t="s" s="0">
         <v>17</v>
@@ -41467,7 +41511,7 @@
         <v>628</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C328" t="s" s="0">
         <v>17</v>
@@ -41481,7 +41525,7 @@
         <v>628</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C329" t="s" s="0">
         <v>17</v>
@@ -41495,13 +41539,13 @@
         <v>628</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>762</v>
+        <v>692</v>
       </c>
       <c r="C330" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D330" t="s" s="0">
-        <v>12</v>
+        <v>241</v>
       </c>
     </row>
     <row r="331">
@@ -41509,7 +41553,7 @@
         <v>628</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="C331" t="s" s="0">
         <v>17</v>
@@ -41523,13 +41567,13 @@
         <v>628</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="C332" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D332" t="s" s="0">
-        <v>321</v>
+        <v>224</v>
       </c>
     </row>
     <row r="333">
@@ -41551,13 +41595,13 @@
         <v>20</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="C334" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D334" t="s" s="0">
-        <v>69</v>
+        <v>150</v>
       </c>
     </row>
     <row r="335">
@@ -41565,13 +41609,13 @@
         <v>20</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C335" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D335" t="s" s="0">
-        <v>299</v>
+        <v>69</v>
       </c>
     </row>
     <row r="336">
@@ -41579,13 +41623,13 @@
         <v>20</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="C336" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D336" t="s" s="0">
-        <v>150</v>
+        <v>299</v>
       </c>
     </row>
     <row r="337">
@@ -41621,13 +41665,13 @@
         <v>93</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>658</v>
+        <v>742</v>
       </c>
       <c r="C339" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D339" t="s" s="0">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="340">
@@ -41635,13 +41679,13 @@
         <v>93</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C340" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D340" t="s" s="0">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="341">
@@ -41649,13 +41693,13 @@
         <v>93</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="C341" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D341" t="s" s="0">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="342">
@@ -41663,13 +41707,13 @@
         <v>93</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C342" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D342" t="s" s="0">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="343">
@@ -41677,13 +41721,13 @@
         <v>93</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C343" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D343" t="s" s="0">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="344">
@@ -41691,13 +41735,13 @@
         <v>93</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>741</v>
+        <v>658</v>
       </c>
       <c r="C344" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D344" t="s" s="0">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="345">
@@ -41705,13 +41749,13 @@
         <v>93</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>744</v>
+        <v>659</v>
       </c>
       <c r="C345" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D345" t="s" s="0">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="346">
@@ -41719,13 +41763,13 @@
         <v>93</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C346" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D346" t="s" s="0">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="347">
@@ -41733,13 +41777,13 @@
         <v>93</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>665</v>
+        <v>741</v>
       </c>
       <c r="C347" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D347" t="s" s="0">
-        <v>107</v>
+        <v>69</v>
       </c>
     </row>
     <row r="348">
@@ -41747,13 +41791,13 @@
         <v>93</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C348" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D348" t="s" s="0">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="349">
@@ -41761,13 +41805,13 @@
         <v>93</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="C349" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D349" t="s" s="0">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="350">
@@ -41803,13 +41847,13 @@
         <v>610</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>650</v>
+        <v>697</v>
       </c>
       <c r="C352" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D352" t="s" s="0">
-        <v>509</v>
+        <v>698</v>
       </c>
     </row>
     <row r="353">
@@ -41817,13 +41861,13 @@
         <v>610</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>784</v>
+        <v>699</v>
       </c>
       <c r="C353" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D353" t="s" s="0">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="354">
@@ -41831,13 +41875,13 @@
         <v>610</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>704</v>
+        <v>650</v>
       </c>
       <c r="C354" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D354" t="s" s="0">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="355">
@@ -41845,7 +41889,7 @@
         <v>610</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C355" t="s" s="0">
         <v>17</v>
@@ -41859,13 +41903,13 @@
         <v>610</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>697</v>
+        <v>785</v>
       </c>
       <c r="C356" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D356" t="s" s="0">
-        <v>698</v>
+        <v>12</v>
       </c>
     </row>
     <row r="357">
@@ -41873,13 +41917,13 @@
         <v>610</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="C357" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D357" t="s" s="0">
-        <v>135</v>
+        <v>515</v>
       </c>
     </row>
     <row r="358">
@@ -41901,13 +41945,13 @@
         <v>635</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>732</v>
+        <v>762</v>
       </c>
       <c r="C359" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D359" t="s" s="0">
-        <v>580</v>
+        <v>12</v>
       </c>
     </row>
     <row r="360">
@@ -41915,13 +41959,13 @@
         <v>635</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>786</v>
+        <v>732</v>
       </c>
       <c r="C360" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D360" t="s" s="0">
-        <v>325</v>
+        <v>580</v>
       </c>
     </row>
     <row r="361">
@@ -41929,13 +41973,13 @@
         <v>635</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="C361" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D361" t="s" s="0">
-        <v>12</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
